--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.69091353161763</v>
+        <v>25.69091353161754</v>
       </c>
       <c r="C2">
-        <v>21.90504903757235</v>
+        <v>21.90504903757243</v>
       </c>
       <c r="D2">
-        <v>7.722537454099003</v>
+        <v>7.722537454099062</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.55162211381684</v>
+        <v>30.55162211381679</v>
       </c>
       <c r="G2">
-        <v>20.24591580065532</v>
+        <v>20.24591580065531</v>
       </c>
       <c r="H2">
-        <v>14.33191404686987</v>
+        <v>14.3319140468699</v>
       </c>
       <c r="I2">
-        <v>30.97537098708293</v>
+        <v>30.97537098708291</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91551855795344</v>
+        <v>23.9155185579535</v>
       </c>
       <c r="C3">
         <v>20.36644813055587</v>
       </c>
       <c r="D3">
-        <v>7.225955945844603</v>
+        <v>7.225955945844616</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.71561810460049</v>
+        <v>28.71561810460043</v>
       </c>
       <c r="G3">
-        <v>19.28514611025689</v>
+        <v>19.28514611025683</v>
       </c>
       <c r="H3">
-        <v>14.11328957904312</v>
+        <v>14.11328957904297</v>
       </c>
       <c r="I3">
-        <v>28.5411222246717</v>
+        <v>28.54112222467173</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76957260795696</v>
+        <v>22.76957260795691</v>
       </c>
       <c r="C4">
-        <v>19.3764871863869</v>
+        <v>19.37648718638687</v>
       </c>
       <c r="D4">
-        <v>6.909629076869256</v>
+        <v>6.909629076869167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.59550789745344</v>
+        <v>27.59550789745347</v>
       </c>
       <c r="G4">
-        <v>18.71807786404685</v>
+        <v>18.71807786404687</v>
       </c>
       <c r="H4">
-        <v>14.01560880260566</v>
+        <v>14.01560880260569</v>
       </c>
       <c r="I4">
-        <v>26.9998796478439</v>
+        <v>26.99987964784385</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,25 +529,25 @@
         <v>22.28828172011618</v>
       </c>
       <c r="C5">
-        <v>18.96140183410515</v>
+        <v>18.9614018341052</v>
       </c>
       <c r="D5">
-        <v>6.777749774006223</v>
+        <v>6.77774977400631</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.1409615065107</v>
+        <v>27.14096150651062</v>
       </c>
       <c r="G5">
-        <v>18.49268927217956</v>
+        <v>18.49268927217948</v>
       </c>
       <c r="H5">
-        <v>13.98432412474681</v>
+        <v>13.98432412474672</v>
       </c>
       <c r="I5">
-        <v>26.35902899287517</v>
+        <v>26.3590289928752</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20749230275237</v>
+        <v>22.2074923027523</v>
       </c>
       <c r="C6">
-        <v>18.89176469206291</v>
+        <v>18.8917646920629</v>
       </c>
       <c r="D6">
-        <v>6.755669348962627</v>
+        <v>6.755669348962769</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.06560564839191</v>
+        <v>27.06560564839198</v>
       </c>
       <c r="G6">
-        <v>18.45560710258466</v>
+        <v>18.45560710258476</v>
       </c>
       <c r="H6">
-        <v>13.97962430309505</v>
+        <v>13.97962430309522</v>
       </c>
       <c r="I6">
         <v>26.25181593833464</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76314001666197</v>
+        <v>22.76314001666199</v>
       </c>
       <c r="C7">
-        <v>19.37093680190227</v>
+        <v>19.37093680190234</v>
       </c>
       <c r="D7">
-        <v>6.907862657658047</v>
+        <v>6.907862657658098</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.58936975271074</v>
+        <v>27.58936975271071</v>
       </c>
       <c r="G7">
-        <v>18.71501516257146</v>
+        <v>18.7150151625714</v>
       </c>
       <c r="H7">
-        <v>14.01515327398816</v>
+        <v>14.01515327398808</v>
       </c>
       <c r="I7">
         <v>26.99128996289776</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09017882118694</v>
+        <v>25.09017882118699</v>
       </c>
       <c r="C8">
-        <v>21.38374665527508</v>
+        <v>21.38374665527522</v>
       </c>
       <c r="D8">
-        <v>7.55361649648581</v>
+        <v>7.55361649648576</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.9170751983092</v>
+        <v>29.9170751983091</v>
       </c>
       <c r="G8">
-        <v>19.90985377931731</v>
+        <v>19.90985377931722</v>
       </c>
       <c r="H8">
-        <v>14.24854240701526</v>
+        <v>14.24854240701513</v>
       </c>
       <c r="I8">
-        <v>30.14502474955268</v>
+        <v>30.14502474955269</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.2241751432751</v>
+        <v>29.22417514327509</v>
       </c>
       <c r="C9">
-        <v>24.98700658500542</v>
+        <v>24.98700658500551</v>
       </c>
       <c r="D9">
-        <v>8.735735162978296</v>
+        <v>8.735735162978258</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.72944893039507</v>
+        <v>34.72944893039505</v>
       </c>
       <c r="G9">
-        <v>22.44028770476969</v>
+        <v>22.44028770476964</v>
       </c>
       <c r="H9">
-        <v>15.02622821572194</v>
+        <v>15.02622821572191</v>
       </c>
       <c r="I9">
-        <v>36.01769000742813</v>
+        <v>36.01769000742814</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.0225057952366</v>
+        <v>32.02250579523666</v>
       </c>
       <c r="C10">
-        <v>27.45030917051948</v>
+        <v>27.45030917051959</v>
       </c>
       <c r="D10">
-        <v>9.565525326947839</v>
+        <v>9.565525326947883</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.53712281038332</v>
+        <v>38.53712281038353</v>
       </c>
       <c r="G10">
-        <v>24.92337029219753</v>
+        <v>24.92337029219767</v>
       </c>
       <c r="H10">
-        <v>15.83474346062586</v>
+        <v>15.83474346062588</v>
       </c>
       <c r="I10">
-        <v>40.24491964172179</v>
+        <v>40.24491964172196</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.25013156555354</v>
+        <v>33.2501315655535</v>
       </c>
       <c r="C11">
-        <v>28.53842129848417</v>
+        <v>28.53842129848427</v>
       </c>
       <c r="D11">
-        <v>9.938864205580222</v>
+        <v>9.938864205580114</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.27885401117149</v>
+        <v>40.2788540111714</v>
       </c>
       <c r="G11">
-        <v>26.07553122602976</v>
+        <v>26.07553122602973</v>
       </c>
       <c r="H11">
-        <v>16.38034878322155</v>
+        <v>16.3803487832215</v>
       </c>
       <c r="I11">
-        <v>42.18112392773707</v>
+        <v>42.181123927737</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70917310134386</v>
+        <v>33.70917310134393</v>
       </c>
       <c r="C12">
-        <v>28.94660861547304</v>
+        <v>28.94660861547315</v>
       </c>
       <c r="D12">
-        <v>10.08015607641105</v>
+        <v>10.08015607641102</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.94163989410538</v>
+        <v>40.94163989410555</v>
       </c>
       <c r="G12">
-        <v>26.51431526808956</v>
+        <v>26.5143152680897</v>
       </c>
       <c r="H12">
-        <v>16.66926531715849</v>
+        <v>16.66926531715858</v>
       </c>
       <c r="I12">
-        <v>42.91996122795447</v>
+        <v>42.91996122795457</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.6105569457016</v>
+        <v>33.61055694570162</v>
       </c>
       <c r="C13">
-        <v>28.85885447538415</v>
+        <v>28.85885447538416</v>
       </c>
       <c r="D13">
         <v>10.0497199808563</v>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.79871711595597</v>
+        <v>40.79871711595609</v>
       </c>
       <c r="G13">
-        <v>26.41968175406899</v>
+        <v>26.41968175406909</v>
       </c>
       <c r="H13">
-        <v>16.60680548093038</v>
+        <v>16.60680548093047</v>
       </c>
       <c r="I13">
-        <v>42.76051591998199</v>
+        <v>42.76051591998211</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.28800955788329</v>
+        <v>33.28800955788321</v>
       </c>
       <c r="C14">
-        <v>28.57207500745083</v>
+        <v>28.57207500745076</v>
       </c>
       <c r="D14">
-        <v>9.95048648315248</v>
+        <v>9.950486483152492</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.33330421626894</v>
+        <v>40.33330421626884</v>
       </c>
       <c r="G14">
-        <v>26.11157230800339</v>
+        <v>26.1115723080033</v>
       </c>
       <c r="H14">
-        <v>16.40401311996075</v>
+        <v>16.4040131199607</v>
       </c>
       <c r="I14">
-        <v>42.24176978189172</v>
+        <v>42.24176978189168</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.08970352702116</v>
+        <v>33.08970352702122</v>
       </c>
       <c r="C15">
-        <v>28.39593966257673</v>
+        <v>28.3959396625766</v>
       </c>
       <c r="D15">
-        <v>9.889710389672187</v>
+        <v>9.889710389672361</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.04871158984638</v>
+        <v>40.04871158984648</v>
       </c>
       <c r="G15">
-        <v>25.92321155134433</v>
+        <v>25.92321155134435</v>
       </c>
       <c r="H15">
-        <v>16.280471245436</v>
+        <v>16.28047124543604</v>
       </c>
       <c r="I15">
-        <v>41.92488837790264</v>
+        <v>41.92488837790256</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.94142013625548</v>
+        <v>31.94142013625541</v>
       </c>
       <c r="C16">
-        <v>27.37861001608886</v>
+        <v>27.37861001608885</v>
       </c>
       <c r="D16">
-        <v>9.541083460362898</v>
+        <v>9.541083460362842</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.42363425458196</v>
+        <v>38.42363425458187</v>
       </c>
       <c r="G16">
-        <v>24.84834939070498</v>
+        <v>24.84834939070493</v>
       </c>
       <c r="H16">
-        <v>15.80800471790762</v>
+        <v>15.80800471790767</v>
       </c>
       <c r="I16">
-        <v>40.11894399625806</v>
+        <v>40.11894399625822</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.22581095855002</v>
+        <v>31.22581095855</v>
       </c>
       <c r="C17">
-        <v>26.74671339903778</v>
+        <v>26.74671339903768</v>
       </c>
       <c r="D17">
-        <v>9.326466516964425</v>
+        <v>9.326466516964496</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.43029475564602</v>
+        <v>37.43029475564613</v>
       </c>
       <c r="G17">
-        <v>24.19201720266294</v>
+        <v>24.19201720266302</v>
       </c>
       <c r="H17">
-        <v>15.58065483637675</v>
+        <v>15.58065483637678</v>
       </c>
       <c r="I17">
-        <v>39.01676052712151</v>
+        <v>39.01676052712146</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80989394789272</v>
+        <v>30.80989394789277</v>
       </c>
       <c r="C18">
-        <v>26.38014976548567</v>
+        <v>26.38014976548557</v>
       </c>
       <c r="D18">
-        <v>9.202596553073882</v>
+        <v>9.202596553073862</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.8597147225785</v>
+        <v>36.85971472257848</v>
       </c>
       <c r="G18">
-        <v>23.81528451294297</v>
+        <v>23.81528451294295</v>
       </c>
       <c r="H18">
-        <v>15.45561133132197</v>
+        <v>15.45561133132191</v>
       </c>
       <c r="I18">
-        <v>38.38377984463644</v>
+        <v>38.38377984463641</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.66831164654474</v>
+        <v>30.66831164654477</v>
       </c>
       <c r="C19">
-        <v>26.25548140076386</v>
+        <v>26.25548140076379</v>
       </c>
       <c r="D19">
-        <v>9.1605698296604</v>
+        <v>9.160569829660492</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.66661023446273</v>
+        <v>36.66661023446279</v>
       </c>
       <c r="G19">
         <v>23.68783232558573</v>
       </c>
       <c r="H19">
-        <v>15.41422968395271</v>
+        <v>15.41422968395273</v>
       </c>
       <c r="I19">
-        <v>38.16953322467321</v>
+        <v>38.16953322467329</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.30243115755</v>
+        <v>31.30243115755003</v>
       </c>
       <c r="C20">
-        <v>26.81429687517641</v>
+        <v>26.81429687517648</v>
       </c>
       <c r="D20">
-        <v>9.349353972537431</v>
+        <v>9.349353972537518</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.53594702355774</v>
+        <v>37.53594702355785</v>
       </c>
       <c r="G20">
-        <v>24.26179769945706</v>
+        <v>24.26179769945712</v>
       </c>
       <c r="H20">
-        <v>15.60425792566666</v>
+        <v>15.60425792566671</v>
       </c>
       <c r="I20">
         <v>39.13396635837223</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.38290154077217</v>
+        <v>33.38290154077218</v>
       </c>
       <c r="C21">
-        <v>28.65640624084634</v>
+        <v>28.6564062408462</v>
       </c>
       <c r="D21">
-        <v>9.979631073663693</v>
+        <v>9.979631073663786</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.46990171373756</v>
+        <v>40.46990171373746</v>
       </c>
       <c r="G21">
-        <v>26.20199274644729</v>
+        <v>26.20199274644718</v>
       </c>
       <c r="H21">
-        <v>16.46343574874312</v>
+        <v>16.46343574874305</v>
       </c>
       <c r="I21">
-        <v>42.39394925656755</v>
+        <v>42.3939492565675</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70906194497975</v>
+        <v>34.70906194497969</v>
       </c>
       <c r="C22">
-        <v>29.83839827409102</v>
+        <v>29.83839827409108</v>
       </c>
       <c r="D22">
-        <v>10.3914486120307</v>
+        <v>10.39144861203087</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.40759959025097</v>
+        <v>42.40759959025105</v>
       </c>
       <c r="G22">
-        <v>27.48537107782132</v>
+        <v>27.48537107782135</v>
       </c>
       <c r="H22">
-        <v>17.314706142033</v>
+        <v>17.31470614203303</v>
       </c>
       <c r="I22">
-        <v>44.56012140820598</v>
+        <v>44.56012140820593</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00405954777921</v>
+        <v>34.00405954777914</v>
       </c>
       <c r="C23">
-        <v>29.2092252652132</v>
+        <v>29.20922526521316</v>
       </c>
       <c r="D23">
-        <v>10.17144407617532</v>
+        <v>10.17144407617547</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.37077824180422</v>
+        <v>41.3707782418041</v>
       </c>
       <c r="G23">
-        <v>26.7985052543127</v>
+        <v>26.79850525431257</v>
       </c>
       <c r="H23">
-        <v>16.85731635000943</v>
+        <v>16.85731635000933</v>
       </c>
       <c r="I23">
         <v>43.39915984182367</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.2678052432907</v>
+        <v>31.26780524329063</v>
       </c>
       <c r="C24">
-        <v>26.78375265349091</v>
+        <v>26.78375265349101</v>
       </c>
       <c r="D24">
-        <v>9.339008096910979</v>
+        <v>9.339008096910906</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.48818019387178</v>
+        <v>37.48818019387169</v>
       </c>
       <c r="G24">
-        <v>24.23024814621031</v>
+        <v>24.23024814621026</v>
       </c>
       <c r="H24">
-        <v>15.59356940062637</v>
+        <v>15.5935694006263</v>
       </c>
       <c r="I24">
-        <v>39.08097575094804</v>
+        <v>39.08097575094789</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14965487110583</v>
+        <v>28.14965487110593</v>
       </c>
       <c r="C25">
-        <v>24.04667810409155</v>
+        <v>24.04667810409172</v>
       </c>
       <c r="D25">
-        <v>8.423873557299576</v>
+        <v>8.423873557299684</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.32639180822785</v>
+        <v>33.32639180822801</v>
       </c>
       <c r="G25">
-        <v>21.73442310497635</v>
+        <v>21.73442310497629</v>
       </c>
       <c r="H25">
-        <v>14.77733415140285</v>
+        <v>14.77733415140269</v>
       </c>
       <c r="I25">
-        <v>34.45316546166645</v>
+        <v>34.45316546166663</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.69091353161754</v>
+        <v>25.69091353161763</v>
       </c>
       <c r="C2">
-        <v>21.90504903757243</v>
+        <v>21.90504903757235</v>
       </c>
       <c r="D2">
-        <v>7.722537454099062</v>
+        <v>7.722537454099003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.55162211381679</v>
+        <v>30.55162211381684</v>
       </c>
       <c r="G2">
-        <v>20.24591580065531</v>
+        <v>20.24591580065532</v>
       </c>
       <c r="H2">
-        <v>14.3319140468699</v>
+        <v>14.33191404686987</v>
       </c>
       <c r="I2">
-        <v>30.97537098708291</v>
+        <v>30.97537098708293</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.9155185579535</v>
+        <v>23.91551855795344</v>
       </c>
       <c r="C3">
         <v>20.36644813055587</v>
       </c>
       <c r="D3">
-        <v>7.225955945844616</v>
+        <v>7.225955945844603</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.71561810460043</v>
+        <v>28.71561810460049</v>
       </c>
       <c r="G3">
-        <v>19.28514611025683</v>
+        <v>19.28514611025689</v>
       </c>
       <c r="H3">
-        <v>14.11328957904297</v>
+        <v>14.11328957904312</v>
       </c>
       <c r="I3">
-        <v>28.54112222467173</v>
+        <v>28.5411222246717</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76957260795691</v>
+        <v>22.76957260795696</v>
       </c>
       <c r="C4">
-        <v>19.37648718638687</v>
+        <v>19.3764871863869</v>
       </c>
       <c r="D4">
-        <v>6.909629076869167</v>
+        <v>6.909629076869256</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.59550789745347</v>
+        <v>27.59550789745344</v>
       </c>
       <c r="G4">
-        <v>18.71807786404687</v>
+        <v>18.71807786404685</v>
       </c>
       <c r="H4">
-        <v>14.01560880260569</v>
+        <v>14.01560880260566</v>
       </c>
       <c r="I4">
-        <v>26.99987964784385</v>
+        <v>26.9998796478439</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,25 +529,25 @@
         <v>22.28828172011618</v>
       </c>
       <c r="C5">
-        <v>18.9614018341052</v>
+        <v>18.96140183410515</v>
       </c>
       <c r="D5">
-        <v>6.77774977400631</v>
+        <v>6.777749774006223</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.14096150651062</v>
+        <v>27.1409615065107</v>
       </c>
       <c r="G5">
-        <v>18.49268927217948</v>
+        <v>18.49268927217956</v>
       </c>
       <c r="H5">
-        <v>13.98432412474672</v>
+        <v>13.98432412474681</v>
       </c>
       <c r="I5">
-        <v>26.3590289928752</v>
+        <v>26.35902899287517</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.2074923027523</v>
+        <v>22.20749230275237</v>
       </c>
       <c r="C6">
-        <v>18.8917646920629</v>
+        <v>18.89176469206291</v>
       </c>
       <c r="D6">
-        <v>6.755669348962769</v>
+        <v>6.755669348962627</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.06560564839198</v>
+        <v>27.06560564839191</v>
       </c>
       <c r="G6">
-        <v>18.45560710258476</v>
+        <v>18.45560710258466</v>
       </c>
       <c r="H6">
-        <v>13.97962430309522</v>
+        <v>13.97962430309505</v>
       </c>
       <c r="I6">
         <v>26.25181593833464</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76314001666199</v>
+        <v>22.76314001666197</v>
       </c>
       <c r="C7">
-        <v>19.37093680190234</v>
+        <v>19.37093680190227</v>
       </c>
       <c r="D7">
-        <v>6.907862657658098</v>
+        <v>6.907862657658047</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.58936975271071</v>
+        <v>27.58936975271074</v>
       </c>
       <c r="G7">
-        <v>18.7150151625714</v>
+        <v>18.71501516257146</v>
       </c>
       <c r="H7">
-        <v>14.01515327398808</v>
+        <v>14.01515327398816</v>
       </c>
       <c r="I7">
         <v>26.99128996289776</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09017882118699</v>
+        <v>25.09017882118694</v>
       </c>
       <c r="C8">
-        <v>21.38374665527522</v>
+        <v>21.38374665527508</v>
       </c>
       <c r="D8">
-        <v>7.55361649648576</v>
+        <v>7.55361649648581</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.9170751983091</v>
+        <v>29.9170751983092</v>
       </c>
       <c r="G8">
-        <v>19.90985377931722</v>
+        <v>19.90985377931731</v>
       </c>
       <c r="H8">
-        <v>14.24854240701513</v>
+        <v>14.24854240701526</v>
       </c>
       <c r="I8">
-        <v>30.14502474955269</v>
+        <v>30.14502474955268</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.22417514327509</v>
+        <v>29.2241751432751</v>
       </c>
       <c r="C9">
-        <v>24.98700658500551</v>
+        <v>24.98700658500542</v>
       </c>
       <c r="D9">
-        <v>8.735735162978258</v>
+        <v>8.735735162978296</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.72944893039505</v>
+        <v>34.72944893039507</v>
       </c>
       <c r="G9">
-        <v>22.44028770476964</v>
+        <v>22.44028770476969</v>
       </c>
       <c r="H9">
-        <v>15.02622821572191</v>
+        <v>15.02622821572194</v>
       </c>
       <c r="I9">
-        <v>36.01769000742814</v>
+        <v>36.01769000742813</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.02250579523666</v>
+        <v>32.0225057952366</v>
       </c>
       <c r="C10">
-        <v>27.45030917051959</v>
+        <v>27.45030917051948</v>
       </c>
       <c r="D10">
-        <v>9.565525326947883</v>
+        <v>9.565525326947839</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.53712281038353</v>
+        <v>38.53712281038332</v>
       </c>
       <c r="G10">
-        <v>24.92337029219767</v>
+        <v>24.92337029219753</v>
       </c>
       <c r="H10">
-        <v>15.83474346062588</v>
+        <v>15.83474346062586</v>
       </c>
       <c r="I10">
-        <v>40.24491964172196</v>
+        <v>40.24491964172179</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.2501315655535</v>
+        <v>33.25013156555354</v>
       </c>
       <c r="C11">
-        <v>28.53842129848427</v>
+        <v>28.53842129848417</v>
       </c>
       <c r="D11">
-        <v>9.938864205580114</v>
+        <v>9.938864205580222</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.2788540111714</v>
+        <v>40.27885401117149</v>
       </c>
       <c r="G11">
-        <v>26.07553122602973</v>
+        <v>26.07553122602976</v>
       </c>
       <c r="H11">
-        <v>16.3803487832215</v>
+        <v>16.38034878322155</v>
       </c>
       <c r="I11">
-        <v>42.181123927737</v>
+        <v>42.18112392773707</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70917310134393</v>
+        <v>33.70917310134386</v>
       </c>
       <c r="C12">
-        <v>28.94660861547315</v>
+        <v>28.94660861547304</v>
       </c>
       <c r="D12">
-        <v>10.08015607641102</v>
+        <v>10.08015607641105</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.94163989410555</v>
+        <v>40.94163989410538</v>
       </c>
       <c r="G12">
-        <v>26.5143152680897</v>
+        <v>26.51431526808956</v>
       </c>
       <c r="H12">
-        <v>16.66926531715858</v>
+        <v>16.66926531715849</v>
       </c>
       <c r="I12">
-        <v>42.91996122795457</v>
+        <v>42.91996122795447</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.61055694570162</v>
+        <v>33.6105569457016</v>
       </c>
       <c r="C13">
-        <v>28.85885447538416</v>
+        <v>28.85885447538415</v>
       </c>
       <c r="D13">
         <v>10.0497199808563</v>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.79871711595609</v>
+        <v>40.79871711595597</v>
       </c>
       <c r="G13">
-        <v>26.41968175406909</v>
+        <v>26.41968175406899</v>
       </c>
       <c r="H13">
-        <v>16.60680548093047</v>
+        <v>16.60680548093038</v>
       </c>
       <c r="I13">
-        <v>42.76051591998211</v>
+        <v>42.76051591998199</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.28800955788321</v>
+        <v>33.28800955788329</v>
       </c>
       <c r="C14">
-        <v>28.57207500745076</v>
+        <v>28.57207500745083</v>
       </c>
       <c r="D14">
-        <v>9.950486483152492</v>
+        <v>9.95048648315248</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.33330421626884</v>
+        <v>40.33330421626894</v>
       </c>
       <c r="G14">
-        <v>26.1115723080033</v>
+        <v>26.11157230800339</v>
       </c>
       <c r="H14">
-        <v>16.4040131199607</v>
+        <v>16.40401311996075</v>
       </c>
       <c r="I14">
-        <v>42.24176978189168</v>
+        <v>42.24176978189172</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.08970352702122</v>
+        <v>33.08970352702116</v>
       </c>
       <c r="C15">
-        <v>28.3959396625766</v>
+        <v>28.39593966257673</v>
       </c>
       <c r="D15">
-        <v>9.889710389672361</v>
+        <v>9.889710389672187</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.04871158984648</v>
+        <v>40.04871158984638</v>
       </c>
       <c r="G15">
-        <v>25.92321155134435</v>
+        <v>25.92321155134433</v>
       </c>
       <c r="H15">
-        <v>16.28047124543604</v>
+        <v>16.280471245436</v>
       </c>
       <c r="I15">
-        <v>41.92488837790256</v>
+        <v>41.92488837790264</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.94142013625541</v>
+        <v>31.94142013625548</v>
       </c>
       <c r="C16">
-        <v>27.37861001608885</v>
+        <v>27.37861001608886</v>
       </c>
       <c r="D16">
-        <v>9.541083460362842</v>
+        <v>9.541083460362898</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.42363425458187</v>
+        <v>38.42363425458196</v>
       </c>
       <c r="G16">
-        <v>24.84834939070493</v>
+        <v>24.84834939070498</v>
       </c>
       <c r="H16">
-        <v>15.80800471790767</v>
+        <v>15.80800471790762</v>
       </c>
       <c r="I16">
-        <v>40.11894399625822</v>
+        <v>40.11894399625806</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.22581095855</v>
+        <v>31.22581095855002</v>
       </c>
       <c r="C17">
-        <v>26.74671339903768</v>
+        <v>26.74671339903778</v>
       </c>
       <c r="D17">
-        <v>9.326466516964496</v>
+        <v>9.326466516964425</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.43029475564613</v>
+        <v>37.43029475564602</v>
       </c>
       <c r="G17">
-        <v>24.19201720266302</v>
+        <v>24.19201720266294</v>
       </c>
       <c r="H17">
-        <v>15.58065483637678</v>
+        <v>15.58065483637675</v>
       </c>
       <c r="I17">
-        <v>39.01676052712146</v>
+        <v>39.01676052712151</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80989394789277</v>
+        <v>30.80989394789272</v>
       </c>
       <c r="C18">
-        <v>26.38014976548557</v>
+        <v>26.38014976548567</v>
       </c>
       <c r="D18">
-        <v>9.202596553073862</v>
+        <v>9.202596553073882</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.85971472257848</v>
+        <v>36.8597147225785</v>
       </c>
       <c r="G18">
-        <v>23.81528451294295</v>
+        <v>23.81528451294297</v>
       </c>
       <c r="H18">
-        <v>15.45561133132191</v>
+        <v>15.45561133132197</v>
       </c>
       <c r="I18">
-        <v>38.38377984463641</v>
+        <v>38.38377984463644</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.66831164654477</v>
+        <v>30.66831164654474</v>
       </c>
       <c r="C19">
-        <v>26.25548140076379</v>
+        <v>26.25548140076386</v>
       </c>
       <c r="D19">
-        <v>9.160569829660492</v>
+        <v>9.1605698296604</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.66661023446279</v>
+        <v>36.66661023446273</v>
       </c>
       <c r="G19">
         <v>23.68783232558573</v>
       </c>
       <c r="H19">
-        <v>15.41422968395273</v>
+        <v>15.41422968395271</v>
       </c>
       <c r="I19">
-        <v>38.16953322467329</v>
+        <v>38.16953322467321</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.30243115755003</v>
+        <v>31.30243115755</v>
       </c>
       <c r="C20">
-        <v>26.81429687517648</v>
+        <v>26.81429687517641</v>
       </c>
       <c r="D20">
-        <v>9.349353972537518</v>
+        <v>9.349353972537431</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.53594702355785</v>
+        <v>37.53594702355774</v>
       </c>
       <c r="G20">
-        <v>24.26179769945712</v>
+        <v>24.26179769945706</v>
       </c>
       <c r="H20">
-        <v>15.60425792566671</v>
+        <v>15.60425792566666</v>
       </c>
       <c r="I20">
         <v>39.13396635837223</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.38290154077218</v>
+        <v>33.38290154077217</v>
       </c>
       <c r="C21">
-        <v>28.6564062408462</v>
+        <v>28.65640624084634</v>
       </c>
       <c r="D21">
-        <v>9.979631073663786</v>
+        <v>9.979631073663693</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.46990171373746</v>
+        <v>40.46990171373756</v>
       </c>
       <c r="G21">
-        <v>26.20199274644718</v>
+        <v>26.20199274644729</v>
       </c>
       <c r="H21">
-        <v>16.46343574874305</v>
+        <v>16.46343574874312</v>
       </c>
       <c r="I21">
-        <v>42.3939492565675</v>
+        <v>42.39394925656755</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70906194497969</v>
+        <v>34.70906194497975</v>
       </c>
       <c r="C22">
-        <v>29.83839827409108</v>
+        <v>29.83839827409102</v>
       </c>
       <c r="D22">
-        <v>10.39144861203087</v>
+        <v>10.3914486120307</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.40759959025105</v>
+        <v>42.40759959025097</v>
       </c>
       <c r="G22">
-        <v>27.48537107782135</v>
+        <v>27.48537107782132</v>
       </c>
       <c r="H22">
-        <v>17.31470614203303</v>
+        <v>17.314706142033</v>
       </c>
       <c r="I22">
-        <v>44.56012140820593</v>
+        <v>44.56012140820598</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00405954777914</v>
+        <v>34.00405954777921</v>
       </c>
       <c r="C23">
-        <v>29.20922526521316</v>
+        <v>29.2092252652132</v>
       </c>
       <c r="D23">
-        <v>10.17144407617547</v>
+        <v>10.17144407617532</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.3707782418041</v>
+        <v>41.37077824180422</v>
       </c>
       <c r="G23">
-        <v>26.79850525431257</v>
+        <v>26.7985052543127</v>
       </c>
       <c r="H23">
-        <v>16.85731635000933</v>
+        <v>16.85731635000943</v>
       </c>
       <c r="I23">
         <v>43.39915984182367</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.26780524329063</v>
+        <v>31.2678052432907</v>
       </c>
       <c r="C24">
-        <v>26.78375265349101</v>
+        <v>26.78375265349091</v>
       </c>
       <c r="D24">
-        <v>9.339008096910906</v>
+        <v>9.339008096910979</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.48818019387169</v>
+        <v>37.48818019387178</v>
       </c>
       <c r="G24">
-        <v>24.23024814621026</v>
+        <v>24.23024814621031</v>
       </c>
       <c r="H24">
-        <v>15.5935694006263</v>
+        <v>15.59356940062637</v>
       </c>
       <c r="I24">
-        <v>39.08097575094789</v>
+        <v>39.08097575094804</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14965487110593</v>
+        <v>28.14965487110583</v>
       </c>
       <c r="C25">
-        <v>24.04667810409172</v>
+        <v>24.04667810409155</v>
       </c>
       <c r="D25">
-        <v>8.423873557299684</v>
+        <v>8.423873557299576</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.32639180822801</v>
+        <v>33.32639180822785</v>
       </c>
       <c r="G25">
-        <v>21.73442310497629</v>
+        <v>21.73442310497635</v>
       </c>
       <c r="H25">
-        <v>14.77733415140269</v>
+        <v>14.77733415140285</v>
       </c>
       <c r="I25">
-        <v>34.45316546166663</v>
+        <v>34.45316546166645</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.69091353161763</v>
+        <v>25.69012921161346</v>
       </c>
       <c r="C2">
-        <v>21.90504903757235</v>
+        <v>21.90095655330106</v>
       </c>
       <c r="D2">
-        <v>7.722537454099003</v>
+        <v>7.72642408638197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.55162211381684</v>
+        <v>30.53312029964001</v>
       </c>
       <c r="G2">
-        <v>20.24591580065532</v>
+        <v>19.60619728426181</v>
       </c>
       <c r="H2">
-        <v>14.33191404686987</v>
+        <v>20.27802091895806</v>
       </c>
       <c r="I2">
-        <v>30.97537098708293</v>
+        <v>14.31991937601282</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>30.97486636042927</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91551855795344</v>
+        <v>23.91495632469338</v>
       </c>
       <c r="C3">
-        <v>20.36644813055587</v>
+        <v>20.36282341744036</v>
       </c>
       <c r="D3">
-        <v>7.225955945844603</v>
+        <v>7.229526520101065</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.71561810460049</v>
+        <v>28.69840800129221</v>
       </c>
       <c r="G3">
-        <v>19.28514611025689</v>
+        <v>18.3492772681419</v>
       </c>
       <c r="H3">
-        <v>14.11328957904312</v>
+        <v>19.31574509191197</v>
       </c>
       <c r="I3">
-        <v>28.5411222246717</v>
+        <v>14.10240165669746</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.54079071125668</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76957260795696</v>
+        <v>22.76914158459514</v>
       </c>
       <c r="C4">
-        <v>19.3764871863869</v>
+        <v>19.37315120207638</v>
       </c>
       <c r="D4">
-        <v>6.909629076869256</v>
+        <v>6.912989097983963</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.59550789745344</v>
+        <v>27.57910560053713</v>
       </c>
       <c r="G4">
-        <v>18.71807786404685</v>
+        <v>17.5822044735195</v>
       </c>
       <c r="H4">
-        <v>14.01560880260566</v>
+        <v>18.747813730267</v>
       </c>
       <c r="I4">
-        <v>26.9998796478439</v>
+        <v>14.00540299040616</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>26.99963954125402</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.28828172011618</v>
+        <v>22.28790324136816</v>
       </c>
       <c r="C5">
-        <v>18.96140183410515</v>
+        <v>18.95818436928696</v>
       </c>
       <c r="D5">
-        <v>6.777749774006223</v>
+        <v>6.781019809565475</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.1409615065107</v>
+        <v>27.12489264988238</v>
       </c>
       <c r="G5">
-        <v>18.49268927217956</v>
+        <v>17.27087524842047</v>
       </c>
       <c r="H5">
-        <v>13.98432412474681</v>
+        <v>18.52208915011552</v>
       </c>
       <c r="I5">
-        <v>26.35902899287517</v>
+        <v>13.97439619438166</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>26.35882311128231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20749230275237</v>
+        <v>22.20712250329827</v>
       </c>
       <c r="C6">
-        <v>18.89176469206291</v>
+        <v>18.88856697243138</v>
       </c>
       <c r="D6">
-        <v>6.755669348962627</v>
+        <v>6.758924188173618</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.06560564839191</v>
+        <v>27.04959242860821</v>
       </c>
       <c r="G6">
-        <v>18.45560710258466</v>
+        <v>17.21925999691415</v>
       </c>
       <c r="H6">
-        <v>13.97962430309505</v>
+        <v>18.48495214662644</v>
       </c>
       <c r="I6">
-        <v>26.25181593833464</v>
+        <v>13.96974248946944</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>26.25161557526711</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76314001666197</v>
+        <v>22.76270970521596</v>
       </c>
       <c r="C7">
-        <v>19.37093680190227</v>
+        <v>19.36760241190415</v>
       </c>
       <c r="D7">
-        <v>6.907862657658047</v>
+        <v>6.91122148220511</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.58936975271074</v>
+        <v>27.5729719348758</v>
       </c>
       <c r="G7">
-        <v>18.71501516257146</v>
+        <v>17.57800048497468</v>
       </c>
       <c r="H7">
-        <v>14.01515327398816</v>
+        <v>18.74474643352633</v>
       </c>
       <c r="I7">
-        <v>26.99128996289776</v>
+        <v>14.00495121066591</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>26.99105032928425</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09017882118694</v>
+        <v>25.08947238302415</v>
       </c>
       <c r="C8">
-        <v>21.38374665527508</v>
+        <v>21.37981544870297</v>
       </c>
       <c r="D8">
-        <v>7.55361649648581</v>
+        <v>7.557397563200233</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.9170751983092</v>
+        <v>29.89901611809083</v>
       </c>
       <c r="G8">
-        <v>19.90985377931731</v>
+        <v>19.17184984386547</v>
       </c>
       <c r="H8">
-        <v>14.24854240701526</v>
+        <v>19.94142692950958</v>
       </c>
       <c r="I8">
-        <v>30.14502474955268</v>
+        <v>14.23692836579768</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>30.14458338826148</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.2241751432751</v>
+        <v>29.22286672421845</v>
       </c>
       <c r="C9">
-        <v>24.98700658500542</v>
+        <v>24.98189193675385</v>
       </c>
       <c r="D9">
-        <v>8.735735162978296</v>
+        <v>8.74021299613794</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.72944893039507</v>
+        <v>34.70787746159555</v>
       </c>
       <c r="G9">
-        <v>22.44028770476969</v>
+        <v>22.44734051996951</v>
       </c>
       <c r="H9">
-        <v>15.02622821572194</v>
+        <v>22.47595232709778</v>
       </c>
       <c r="I9">
-        <v>36.01769000742813</v>
+        <v>15.01189694624539</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>36.01669109911677</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.0225057952366</v>
+        <v>32.02068392677695</v>
       </c>
       <c r="C10">
-        <v>27.45030917051948</v>
+        <v>27.44427342594862</v>
       </c>
       <c r="D10">
-        <v>9.565525326947839</v>
+        <v>9.570430218062933</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.53712281038332</v>
+        <v>38.51321763176622</v>
       </c>
       <c r="G10">
-        <v>24.92337029219753</v>
+        <v>24.96390727654863</v>
       </c>
       <c r="H10">
-        <v>15.83474346062586</v>
+        <v>24.7074231348939</v>
       </c>
       <c r="I10">
-        <v>40.24491964172179</v>
+        <v>15.81847886750892</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>40.2433231305134</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.25013156555354</v>
+        <v>33.24804988682749</v>
       </c>
       <c r="C11">
-        <v>28.53842129848417</v>
+        <v>28.53194164543298</v>
       </c>
       <c r="D11">
-        <v>9.938864205580222</v>
+        <v>9.943941955705398</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.27885401117149</v>
+        <v>40.25384965388298</v>
       </c>
       <c r="G11">
-        <v>26.07553122602976</v>
+        <v>26.11787933253727</v>
       </c>
       <c r="H11">
-        <v>16.38034878322155</v>
+        <v>25.80282259399136</v>
       </c>
       <c r="I11">
-        <v>42.18112392773707</v>
+        <v>16.36209755199812</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>42.1791813823763</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70917310134386</v>
+        <v>33.70698798639734</v>
       </c>
       <c r="C12">
-        <v>28.94660861547304</v>
+        <v>28.93995566130459</v>
       </c>
       <c r="D12">
-        <v>10.08015607641105</v>
+        <v>10.08529571976819</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.94163989410538</v>
+        <v>40.91621055745271</v>
       </c>
       <c r="G12">
-        <v>26.51431526808956</v>
+        <v>26.55735220132319</v>
       </c>
       <c r="H12">
-        <v>16.66926531715849</v>
+        <v>26.22124522104839</v>
       </c>
       <c r="I12">
-        <v>42.91996122795447</v>
+        <v>16.65075085994021</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>42.91787246484258</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.6105569457016</v>
+        <v>33.60839435745526</v>
       </c>
       <c r="C13">
-        <v>28.85885447538415</v>
+        <v>28.85223910810611</v>
       </c>
       <c r="D13">
-        <v>10.0497199808563</v>
+        <v>10.05484646382231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.79871711595597</v>
+        <v>40.77337976235829</v>
       </c>
       <c r="G13">
-        <v>26.41968175406899</v>
+        <v>26.46257019632676</v>
       </c>
       <c r="H13">
-        <v>16.60680548093038</v>
+        <v>26.13094793019862</v>
       </c>
       <c r="I13">
-        <v>42.76051591998199</v>
+        <v>16.58834781518345</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>42.75845941789279</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.28800955788329</v>
+        <v>33.28591947954251</v>
       </c>
       <c r="C14">
-        <v>28.57207500745083</v>
+        <v>28.565581212392</v>
       </c>
       <c r="D14">
-        <v>9.95048648315248</v>
+        <v>9.95556940052052</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.33330421626894</v>
+        <v>40.30826509464966</v>
       </c>
       <c r="G14">
-        <v>26.11157230800339</v>
+        <v>26.15397702234359</v>
       </c>
       <c r="H14">
-        <v>16.40401311996075</v>
+        <v>25.83716633324693</v>
       </c>
       <c r="I14">
-        <v>42.24176978189172</v>
+        <v>16.3857402748374</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>42.23981554483266</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.08970352702116</v>
+        <v>33.08765715984811</v>
       </c>
       <c r="C15">
-        <v>28.39593966257673</v>
+        <v>28.38951959884522</v>
       </c>
       <c r="D15">
-        <v>9.889710389672187</v>
+        <v>9.894766138411732</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.04871158984638</v>
+        <v>40.02385388443666</v>
       </c>
       <c r="G15">
-        <v>25.92321155134433</v>
+        <v>25.96532037031803</v>
       </c>
       <c r="H15">
-        <v>16.280471245436</v>
+        <v>25.65772670443363</v>
       </c>
       <c r="I15">
-        <v>41.92488837790264</v>
+        <v>16.26231135502087</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>41.9229946344395</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.94142013625548</v>
+        <v>31.93961461903431</v>
       </c>
       <c r="C16">
-        <v>27.37861001608886</v>
+        <v>27.37260265420609</v>
       </c>
       <c r="D16">
-        <v>9.541083460362898</v>
+        <v>9.54597658830761</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.42363425458196</v>
+        <v>38.39979989526914</v>
       </c>
       <c r="G16">
-        <v>24.84834939070498</v>
+        <v>24.88876841169964</v>
       </c>
       <c r="H16">
-        <v>15.80800471790762</v>
+        <v>24.63627509213156</v>
       </c>
       <c r="I16">
-        <v>40.11894399625806</v>
+        <v>15.7917969206798</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>40.11736826472257</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.22581095855002</v>
+        <v>31.22414568782686</v>
       </c>
       <c r="C17">
-        <v>26.74671339903778</v>
+        <v>26.74095184237581</v>
       </c>
       <c r="D17">
-        <v>9.326466516964425</v>
+        <v>9.33125413050837</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.43029475564602</v>
+        <v>37.40707654296844</v>
       </c>
       <c r="G17">
-        <v>24.19201720266294</v>
+        <v>24.23140451906285</v>
       </c>
       <c r="H17">
-        <v>15.58065483637675</v>
+        <v>24.01482122417328</v>
       </c>
       <c r="I17">
-        <v>39.01676052712151</v>
+        <v>15.56494636254355</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>39.01535825213999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80989394789272</v>
+        <v>30.80830696920219</v>
       </c>
       <c r="C18">
-        <v>26.38014976548567</v>
+        <v>26.37452736761296</v>
       </c>
       <c r="D18">
-        <v>9.202596553073882</v>
+        <v>9.207321502808659</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.8597147225785</v>
+        <v>36.83684762098211</v>
       </c>
       <c r="G18">
-        <v>23.81528451294297</v>
+        <v>23.85408013203196</v>
       </c>
       <c r="H18">
-        <v>15.45561133132197</v>
+        <v>23.65895453793735</v>
       </c>
       <c r="I18">
-        <v>38.38377984463644</v>
+        <v>15.44019146071067</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>38.38247071169798</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.66831164654474</v>
+        <v>30.6667508009767</v>
       </c>
       <c r="C19">
-        <v>26.25548140076386</v>
+        <v>26.2499057792894</v>
       </c>
       <c r="D19">
-        <v>9.1605698296604</v>
+        <v>9.165273234081841</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.66661023446273</v>
+        <v>36.64386153294738</v>
       </c>
       <c r="G19">
-        <v>23.68783232558573</v>
+        <v>23.72642789240743</v>
       </c>
       <c r="H19">
-        <v>15.41422968395271</v>
+        <v>23.53870818158671</v>
       </c>
       <c r="I19">
-        <v>38.16953322467321</v>
+        <v>15.39890778013001</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>38.16825459743165</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.30243115755</v>
+        <v>31.30075121101055</v>
       </c>
       <c r="C20">
-        <v>26.81429687517641</v>
+        <v>26.80850939217279</v>
       </c>
       <c r="D20">
-        <v>9.349353972537431</v>
+        <v>9.354153025333396</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.53594702355774</v>
+        <v>37.51266358094757</v>
       </c>
       <c r="G20">
-        <v>24.26179769945706</v>
+        <v>24.30129466343779</v>
       </c>
       <c r="H20">
-        <v>15.60425792566666</v>
+        <v>24.0808062031679</v>
       </c>
       <c r="I20">
-        <v>39.13396635837223</v>
+        <v>15.58849615515996</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>39.13254633090433</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.38290154077217</v>
+        <v>33.38079031400641</v>
       </c>
       <c r="C21">
-        <v>28.65640624084634</v>
+        <v>28.64987689402158</v>
       </c>
       <c r="D21">
-        <v>9.979631073663693</v>
+        <v>9.984726889349062</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.46990171373756</v>
+        <v>40.44477526450348</v>
       </c>
       <c r="G21">
-        <v>26.20199274644729</v>
+        <v>26.24453945888826</v>
       </c>
       <c r="H21">
-        <v>16.46343574874312</v>
+        <v>25.9233482955319</v>
       </c>
       <c r="I21">
-        <v>42.39394925656755</v>
+        <v>16.44510867451585</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>42.39196544039239</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70906194497975</v>
+        <v>34.70663844902811</v>
       </c>
       <c r="C22">
-        <v>29.83839827409102</v>
+        <v>29.83135253220475</v>
       </c>
       <c r="D22">
-        <v>10.3914486120307</v>
+        <v>10.39671713260994</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.40759959025097</v>
+        <v>42.38121504853682</v>
       </c>
       <c r="G22">
-        <v>27.48537107782132</v>
+        <v>27.52992865369509</v>
       </c>
       <c r="H22">
-        <v>17.314706142033</v>
+        <v>27.14946654045686</v>
       </c>
       <c r="I22">
-        <v>44.56012140820598</v>
+        <v>17.29560753383369</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>44.55767673978125</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00405954777921</v>
+        <v>34.00180604685158</v>
       </c>
       <c r="C23">
-        <v>29.2092252652132</v>
+        <v>29.20245871783667</v>
       </c>
       <c r="D23">
-        <v>10.17144407617532</v>
+        <v>10.17662260961714</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.37077824180422</v>
+        <v>41.34507154425172</v>
       </c>
       <c r="G23">
-        <v>26.7985052543127</v>
+        <v>26.84198783936505</v>
       </c>
       <c r="H23">
-        <v>16.85731635000943</v>
+        <v>26.49259058226064</v>
       </c>
       <c r="I23">
-        <v>43.39915984182367</v>
+        <v>16.83863123639232</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>43.39697170491927</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.2678052432907</v>
+        <v>31.26613193887852</v>
       </c>
       <c r="C24">
-        <v>26.78375265349091</v>
+        <v>26.77797689839341</v>
       </c>
       <c r="D24">
-        <v>9.339008096910979</v>
+        <v>9.343801984225134</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.48818019387178</v>
+        <v>37.46492625119806</v>
       </c>
       <c r="G24">
-        <v>24.23024814621031</v>
+        <v>24.26969553404762</v>
       </c>
       <c r="H24">
-        <v>15.59356940062637</v>
+        <v>24.05097006139714</v>
       </c>
       <c r="I24">
-        <v>39.08097575094804</v>
+        <v>15.57783172072266</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>39.07956376956727</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14965487110583</v>
+        <v>28.14851885870889</v>
       </c>
       <c r="C25">
-        <v>24.04667810409155</v>
+        <v>24.04188893622738</v>
       </c>
       <c r="D25">
-        <v>8.423873557299576</v>
+        <v>8.428177188461827</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.32639180822785</v>
+        <v>33.30566316166032</v>
       </c>
       <c r="G25">
-        <v>21.73442310497635</v>
+        <v>21.5228231326473</v>
       </c>
       <c r="H25">
-        <v>14.77733415140285</v>
+        <v>21.76893068027131</v>
       </c>
       <c r="I25">
-        <v>34.45316546166645</v>
+        <v>14.76372839737608</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>34.45234210072813</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.69012921161346</v>
+        <v>20.40739736607416</v>
       </c>
       <c r="C2">
-        <v>21.90095655330106</v>
+        <v>10.02127670455524</v>
       </c>
       <c r="D2">
-        <v>7.72642408638197</v>
+        <v>5.618815053494107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.53312029964001</v>
+        <v>67.15949206579407</v>
       </c>
       <c r="G2">
-        <v>19.60619728426181</v>
+        <v>2.151904709640251</v>
       </c>
       <c r="H2">
-        <v>20.27802091895806</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.31991937601282</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>30.97486636042927</v>
+        <v>7.131024388538945</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.04114221226098</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.200923970038002</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91495632469338</v>
+        <v>19.33954907868814</v>
       </c>
       <c r="C3">
-        <v>20.36282341744036</v>
+        <v>9.272656250593606</v>
       </c>
       <c r="D3">
-        <v>7.229526520101065</v>
+        <v>5.315745828430281</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.69840800129221</v>
+        <v>64.12942106287791</v>
       </c>
       <c r="G3">
-        <v>18.3492772681419</v>
+        <v>2.165737326258942</v>
       </c>
       <c r="H3">
-        <v>19.31574509191197</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.10240165669746</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.54079071125668</v>
+        <v>7.092488011746628</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.20843461056565</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.193166521444111</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76914158459514</v>
+        <v>18.68148794300433</v>
       </c>
       <c r="C4">
-        <v>19.37315120207638</v>
+        <v>8.793190232770916</v>
       </c>
       <c r="D4">
-        <v>6.912989097983963</v>
+        <v>5.124614287557154</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.57910560053713</v>
+        <v>62.2450824988741</v>
       </c>
       <c r="G4">
-        <v>17.5822044735195</v>
+        <v>2.174377150304739</v>
       </c>
       <c r="H4">
-        <v>18.747813730267</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.00540299040616</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>26.99963954125402</v>
+        <v>7.070466719223954</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.69665885661749</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.194176972289791</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.28790324136816</v>
+        <v>18.41298053681526</v>
       </c>
       <c r="C5">
-        <v>18.95818436928696</v>
+        <v>8.59265980274758</v>
       </c>
       <c r="D5">
-        <v>6.781019809565475</v>
+        <v>5.045457208121068</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.12489264988238</v>
+        <v>61.47154897462552</v>
       </c>
       <c r="G5">
-        <v>17.27087524842047</v>
+        <v>2.177939391034632</v>
       </c>
       <c r="H5">
-        <v>18.52208915011552</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>13.97439619438166</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>26.35882311128231</v>
+        <v>7.061881924731194</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.48818485706597</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.195982276583503</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20712250329827</v>
+        <v>18.36838351808297</v>
       </c>
       <c r="C6">
-        <v>18.88856697243138</v>
+        <v>8.559046683850449</v>
       </c>
       <c r="D6">
-        <v>6.758924188173618</v>
+        <v>5.03223681906068</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.04959242860821</v>
+        <v>61.34277614664251</v>
       </c>
       <c r="G6">
-        <v>17.21925999691415</v>
+        <v>2.17853352750788</v>
       </c>
       <c r="H6">
-        <v>18.48495214662644</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13.96974248946944</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>26.25161557526711</v>
+        <v>7.060479275391121</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.45357970976992</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.196364558461366</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76270970521596</v>
+        <v>18.67786774301928</v>
       </c>
       <c r="C7">
-        <v>19.36760241190415</v>
+        <v>8.790506843062747</v>
       </c>
       <c r="D7">
-        <v>6.91122148220511</v>
+        <v>5.123551877944877</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.5729719348758</v>
+        <v>62.23467266218161</v>
       </c>
       <c r="G7">
-        <v>17.57800048497468</v>
+        <v>2.174425018372234</v>
       </c>
       <c r="H7">
-        <v>18.74474643352633</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>14.00495121066591</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>26.99105032928425</v>
+        <v>7.070349395954236</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.69384667416208</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.194195751929557</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08947238302415</v>
+        <v>20.03983304404299</v>
       </c>
       <c r="C8">
-        <v>21.37981544870297</v>
+        <v>9.767161435263832</v>
       </c>
       <c r="D8">
-        <v>7.557397563200233</v>
+        <v>5.515359190907724</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.89901611809083</v>
+        <v>66.11983860415329</v>
       </c>
       <c r="G8">
-        <v>19.17184984386547</v>
+        <v>2.156646690013523</v>
       </c>
       <c r="H8">
-        <v>19.94142692950958</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>14.23692836579768</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>30.14458338826148</v>
+        <v>7.117381936136258</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.75422843478873</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.19701496058791</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.22286672421845</v>
+        <v>22.68449151148216</v>
       </c>
       <c r="C9">
-        <v>24.98189193675385</v>
+        <v>11.53338010536157</v>
       </c>
       <c r="D9">
-        <v>8.74021299613794</v>
+        <v>6.244485497995236</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.70787746159555</v>
+        <v>73.54257384635427</v>
       </c>
       <c r="G9">
-        <v>22.44734051996951</v>
+        <v>2.122712114531397</v>
       </c>
       <c r="H9">
-        <v>22.47595232709778</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>15.01189694624539</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>36.01669109911677</v>
+        <v>7.223797520973918</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.96848955759435</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.251136900320234</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.02068392677695</v>
+        <v>24.62250350706314</v>
       </c>
       <c r="C10">
-        <v>27.44427342594862</v>
+        <v>12.75316842840243</v>
       </c>
       <c r="D10">
-        <v>9.570430218062933</v>
+        <v>6.758637213007044</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.51321763176622</v>
+        <v>78.88145979520266</v>
       </c>
       <c r="G10">
-        <v>24.96390727654863</v>
+        <v>2.097970799067281</v>
       </c>
       <c r="H10">
-        <v>24.7074231348939</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>15.81847886750892</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>40.2433231305134</v>
+        <v>7.312477091676819</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.85166509829246</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.324690732968665</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.24804988682749</v>
+        <v>25.61190522016587</v>
       </c>
       <c r="C11">
-        <v>28.53194164543298</v>
+        <v>13.29462218215196</v>
       </c>
       <c r="D11">
-        <v>9.943941955705398</v>
+        <v>6.988744501311844</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.25384965388298</v>
+        <v>81.29074708316767</v>
       </c>
       <c r="G11">
-        <v>26.11787933253727</v>
+        <v>2.0866557067691</v>
       </c>
       <c r="H11">
-        <v>25.80282259399136</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.36209755199812</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>42.1791813823763</v>
+        <v>7.35558649559334</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.68736076513318</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.366520790386803</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70698798639734</v>
+        <v>25.98432244229553</v>
       </c>
       <c r="C12">
-        <v>28.93995566130459</v>
+        <v>13.49806783871449</v>
       </c>
       <c r="D12">
-        <v>10.08529571976819</v>
+        <v>7.075437171985459</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.91621055745271</v>
+        <v>82.20105377142674</v>
       </c>
       <c r="G12">
-        <v>26.55735220132319</v>
+        <v>2.08235219624132</v>
       </c>
       <c r="H12">
-        <v>26.22124522104839</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>16.65075085994021</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>42.91787246484258</v>
+        <v>7.37235734562014</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.00122503670711</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.383662121365459</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.60839435745526</v>
+        <v>25.90420804527105</v>
       </c>
       <c r="C13">
-        <v>28.85223910810611</v>
+        <v>13.45431689966899</v>
       </c>
       <c r="D13">
-        <v>10.05484646382231</v>
+        <v>7.056784236018919</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.77337976235829</v>
+        <v>82.00507860126501</v>
       </c>
       <c r="G13">
-        <v>26.46257019632676</v>
+        <v>2.083280046556408</v>
       </c>
       <c r="H13">
-        <v>26.13094793019862</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>16.58834781518345</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>42.75845941789279</v>
+        <v>7.368724744091865</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.93373658250221</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.379910866336861</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.28591947954251</v>
+        <v>25.64258653926115</v>
       </c>
       <c r="C14">
-        <v>28.565581212392</v>
+        <v>13.3113895118678</v>
       </c>
       <c r="D14">
-        <v>9.95556940052052</v>
+        <v>6.995884994541046</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.30826509464966</v>
+        <v>81.36567410431506</v>
       </c>
       <c r="G14">
-        <v>26.15397702234359</v>
+        <v>2.086302093696548</v>
       </c>
       <c r="H14">
-        <v>25.83716633324693</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>16.3857402748374</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>42.23981554483266</v>
+        <v>7.356956996071785</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.7132318768616</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.367904335655185</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.08765715984811</v>
+        <v>25.48205700075858</v>
       </c>
       <c r="C15">
-        <v>28.38951959884522</v>
+        <v>13.22364622765788</v>
       </c>
       <c r="D15">
-        <v>9.894766138411732</v>
+        <v>6.958528029218678</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.02385388443666</v>
+        <v>80.97378203457605</v>
       </c>
       <c r="G15">
-        <v>25.96532037031803</v>
+        <v>2.088150416937154</v>
       </c>
       <c r="H15">
-        <v>25.65772670443363</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>16.26231135502087</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>41.9229946344395</v>
+        <v>7.349808588214364</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.57784227077926</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.36072255490532</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.93961461903431</v>
+        <v>24.55750476437177</v>
       </c>
       <c r="C16">
-        <v>27.37260265420609</v>
+        <v>12.71754069358341</v>
       </c>
       <c r="D16">
-        <v>9.54597658830761</v>
+        <v>6.743531029949589</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.39979989526914</v>
+        <v>78.72367484381617</v>
       </c>
       <c r="G16">
-        <v>24.88876841169964</v>
+        <v>2.098708232889898</v>
       </c>
       <c r="H16">
-        <v>24.63627509213156</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>15.7917969206798</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>40.11736826472257</v>
+        <v>7.309719443986793</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.79666246355493</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.322133532278527</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.22414568782686</v>
+        <v>24.05128944891178</v>
       </c>
       <c r="C17">
-        <v>26.74095184237581</v>
+        <v>12.40384602850108</v>
       </c>
       <c r="D17">
-        <v>9.33125413050837</v>
+        <v>6.610731998717975</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.40707654296844</v>
+        <v>77.33878794431453</v>
       </c>
       <c r="G17">
-        <v>24.23140451906285</v>
+        <v>2.105163047104448</v>
       </c>
       <c r="H17">
-        <v>24.01482122417328</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>15.56494636254355</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>39.01535825213999</v>
+        <v>7.285867074032594</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.31233619911463</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.300669891225979</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80830696920219</v>
+        <v>23.76319043295611</v>
       </c>
       <c r="C18">
-        <v>26.37452736761296</v>
+        <v>12.22212933987514</v>
       </c>
       <c r="D18">
-        <v>9.207321502808659</v>
+        <v>6.533986073879881</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.83684762098211</v>
+        <v>76.54035108973079</v>
       </c>
       <c r="G18">
-        <v>23.85408013203196</v>
+        <v>2.108870717684696</v>
       </c>
       <c r="H18">
-        <v>23.65895453793735</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>15.44019146071067</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>38.38247071169798</v>
+        <v>7.272405130751121</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.0317609795739</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.289105921771575</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.6667508009767</v>
+        <v>23.66559361669067</v>
       </c>
       <c r="C19">
-        <v>26.2499057792894</v>
+        <v>12.16037250846051</v>
       </c>
       <c r="D19">
-        <v>9.165273234081841</v>
+        <v>6.507936149275566</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.64386153294738</v>
+        <v>76.26967159797779</v>
       </c>
       <c r="G19">
-        <v>23.72642789240743</v>
+        <v>2.110125498463799</v>
       </c>
       <c r="H19">
-        <v>23.53870818158671</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>15.39890778013001</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>38.16825459743165</v>
+        <v>7.267889996110742</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.93640744834499</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.285321978833</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.30075121101055</v>
+        <v>24.10458702626212</v>
       </c>
       <c r="C20">
-        <v>26.80850939217279</v>
+        <v>12.43737035258571</v>
       </c>
       <c r="D20">
-        <v>9.354153025333396</v>
+        <v>6.624905649877269</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.51266358094757</v>
+        <v>77.48640219698032</v>
       </c>
       <c r="G20">
-        <v>24.30129466343779</v>
+        <v>2.104476502972376</v>
       </c>
       <c r="H20">
-        <v>24.0808062031679</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>15.58849615515996</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>39.13254633090433</v>
+        <v>7.288379244587995</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.36409813844104</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.302873197718823</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.38079031400641</v>
+        <v>25.71948833739967</v>
       </c>
       <c r="C21">
-        <v>28.64987689402158</v>
+        <v>13.35341093335902</v>
       </c>
       <c r="D21">
-        <v>9.984726889349062</v>
+        <v>7.013783704754944</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.44477526450348</v>
+        <v>81.55353063422073</v>
       </c>
       <c r="G21">
-        <v>26.24453945888826</v>
+        <v>2.085415042521468</v>
       </c>
       <c r="H21">
-        <v>25.9233482955319</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16.44510867451585</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>42.39196544039239</v>
+        <v>7.360400934864035</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.77806612568137</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.371394789544038</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70663844902811</v>
+        <v>26.79980239478275</v>
       </c>
       <c r="C22">
-        <v>29.83135253220475</v>
+        <v>13.94302411405141</v>
       </c>
       <c r="D22">
-        <v>10.39671713260994</v>
+        <v>7.265415576419086</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.38121504853682</v>
+        <v>84.2003130139101</v>
       </c>
       <c r="G22">
-        <v>27.52992865369509</v>
+        <v>2.072842091269632</v>
       </c>
       <c r="H22">
-        <v>27.14946654045686</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>17.29560753383369</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>44.55767673978125</v>
+        <v>7.410100778443418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.68730646768952</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.423817124906027</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00180604685158</v>
+        <v>26.22422814449939</v>
       </c>
       <c r="C23">
-        <v>29.20245871783667</v>
+        <v>13.62903839857296</v>
       </c>
       <c r="D23">
-        <v>10.17662260961714</v>
+        <v>7.131305882496368</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.34507154425172</v>
+        <v>82.78838774154816</v>
       </c>
       <c r="G23">
-        <v>26.84198783936505</v>
+        <v>2.079566855636561</v>
       </c>
       <c r="H23">
-        <v>26.49259058226064</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>16.83863123639232</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>43.39697170491927</v>
+        <v>7.383316380065088</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.20322655164123</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.395103581236292</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.26613193887852</v>
+        <v>24.08049243862584</v>
       </c>
       <c r="C24">
-        <v>26.77797689839341</v>
+        <v>12.42221829604783</v>
       </c>
       <c r="D24">
-        <v>9.343801984225134</v>
+        <v>6.618498989017181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.46492625119806</v>
+        <v>77.41967284500143</v>
       </c>
       <c r="G24">
-        <v>24.26969553404762</v>
+        <v>2.10478689908095</v>
       </c>
       <c r="H24">
-        <v>24.05097006139714</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>15.57783172072266</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>39.07956376956727</v>
+        <v>7.287242713671481</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.34070322940765</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.301874673739897</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14851885870889</v>
+        <v>21.97247941550219</v>
       </c>
       <c r="C25">
-        <v>24.04188893622738</v>
+        <v>11.07028345345913</v>
       </c>
       <c r="D25">
-        <v>8.428177188461827</v>
+        <v>6.051253693954763</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.30566316166032</v>
+        <v>71.55572862967423</v>
       </c>
       <c r="G25">
-        <v>21.5228231326473</v>
+        <v>2.131828554239563</v>
       </c>
       <c r="H25">
-        <v>21.76893068027131</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.76372839737608</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>34.45234210072813</v>
+        <v>7.193313697014708</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.26575996292419</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.230883624698008</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.40739736607416</v>
+        <v>26.77269888390316</v>
       </c>
       <c r="C2">
-        <v>10.02127670455524</v>
+        <v>15.65376937184489</v>
       </c>
       <c r="D2">
-        <v>5.618815053494107</v>
+        <v>3.323619976972143</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>67.15949206579407</v>
+        <v>44.31992300188836</v>
       </c>
       <c r="G2">
-        <v>2.151904709640251</v>
+        <v>2.13158637478064</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.131024388538945</v>
+        <v>6.014910536186522</v>
       </c>
       <c r="K2">
-        <v>16.04114221226098</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.200923970038002</v>
+        <v>6.710028044367375</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.58548031805381</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.886206213792</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33954907868814</v>
+        <v>25.27093492797603</v>
       </c>
       <c r="C3">
-        <v>9.272656250593606</v>
+        <v>14.51403290706715</v>
       </c>
       <c r="D3">
-        <v>5.315745828430281</v>
+        <v>3.105939847474619</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.12942106287791</v>
+        <v>43.06004931032727</v>
       </c>
       <c r="G3">
-        <v>2.165737326258942</v>
+        <v>2.144122223336696</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.092488011746628</v>
+        <v>6.038873102721316</v>
       </c>
       <c r="K3">
-        <v>15.20843461056565</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.193166521444111</v>
+        <v>6.663874303014524</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.04428143322943</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16.085079987751</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68148794300433</v>
+        <v>24.32781231598317</v>
       </c>
       <c r="C4">
-        <v>8.793190232770916</v>
+        <v>13.78070329352161</v>
       </c>
       <c r="D4">
-        <v>5.124614287557154</v>
+        <v>2.968049973415986</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>62.2450824988741</v>
+        <v>42.31182591826504</v>
       </c>
       <c r="G4">
-        <v>2.174377150304739</v>
+        <v>2.151983082794591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.070466719223954</v>
+        <v>6.054035478241406</v>
       </c>
       <c r="K4">
-        <v>14.69665885661749</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.194176972289791</v>
+        <v>6.638702522048481</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.71482122182057</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>16.21178808775116</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.41298053681526</v>
+        <v>23.93851465180976</v>
       </c>
       <c r="C5">
-        <v>8.59265980274758</v>
+        <v>13.47327835583687</v>
       </c>
       <c r="D5">
-        <v>5.045457208121068</v>
+        <v>2.91075874469014</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>61.47154897462552</v>
+        <v>42.01330273858236</v>
       </c>
       <c r="G5">
-        <v>2.177939391034632</v>
+        <v>2.155231032415781</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.061881924731194</v>
+        <v>6.060329567172209</v>
       </c>
       <c r="K5">
-        <v>14.48818485706597</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.195982276583503</v>
+        <v>6.629223510196571</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.58139726357316</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>16.26455741732126</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36838351808297</v>
+        <v>23.87358336825943</v>
       </c>
       <c r="C6">
-        <v>8.559046683850449</v>
+        <v>13.42170775699059</v>
       </c>
       <c r="D6">
-        <v>5.03223681906068</v>
+        <v>2.901178257376968</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.34277614664251</v>
+        <v>41.96411931239805</v>
       </c>
       <c r="G6">
-        <v>2.17853352750788</v>
+        <v>2.155773138833463</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.060479275391121</v>
+        <v>6.061381726100093</v>
       </c>
       <c r="K6">
-        <v>14.45357970976992</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.196364558461366</v>
+        <v>6.627696049886865</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.55929648872979</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16.27338770991795</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67786774301928</v>
+        <v>24.32258172778128</v>
       </c>
       <c r="C7">
-        <v>8.790506843062747</v>
+        <v>13.77659221829321</v>
       </c>
       <c r="D7">
-        <v>5.123551877944877</v>
+        <v>2.967281818876245</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>62.23467266218161</v>
+        <v>42.30777405811617</v>
       </c>
       <c r="G7">
-        <v>2.174425018372234</v>
+        <v>2.152026700966234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.070349395954236</v>
+        <v>6.05411989266524</v>
       </c>
       <c r="K7">
-        <v>14.69384667416208</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.194195751929557</v>
+        <v>6.638571554891085</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.71301827337244</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>16.21249518421814</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.03983304404299</v>
+        <v>26.25941854121775</v>
       </c>
       <c r="C8">
-        <v>9.767161435263832</v>
+        <v>15.267647407508</v>
       </c>
       <c r="D8">
-        <v>5.515359190907724</v>
+        <v>3.249418676557354</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66.11983860415329</v>
+        <v>43.88025918926435</v>
       </c>
       <c r="G8">
-        <v>2.156646690013523</v>
+        <v>2.13587687749853</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.117381936136258</v>
+        <v>6.023081012741134</v>
       </c>
       <c r="K8">
-        <v>15.75422843478873</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.19701496058791</v>
+        <v>6.693446198300103</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.3983524671304</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.95380895898965</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.68449151148216</v>
+        <v>29.8816436564011</v>
       </c>
       <c r="C9">
-        <v>11.53338010536157</v>
+        <v>17.93354223429044</v>
       </c>
       <c r="D9">
-        <v>6.244485497995236</v>
+        <v>3.771135040166151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.54257384635427</v>
+        <v>47.1660370445259</v>
       </c>
       <c r="G9">
-        <v>2.122712114531397</v>
+        <v>2.105336357604594</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.223797520973918</v>
+        <v>5.965668792754007</v>
       </c>
       <c r="K9">
-        <v>17.96848955759435</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.251136900320234</v>
+        <v>6.827015666378852</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.76059989921715</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.48425593935247</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.62250350706314</v>
+        <v>32.43063459555195</v>
       </c>
       <c r="C10">
-        <v>12.75316842840243</v>
+        <v>19.74742364045008</v>
       </c>
       <c r="D10">
-        <v>6.758637213007044</v>
+        <v>4.138720164337045</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.88145979520266</v>
+        <v>49.70843611215173</v>
       </c>
       <c r="G10">
-        <v>2.097970799067281</v>
+        <v>2.083318613146126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.312477091676819</v>
+        <v>5.925435418121874</v>
       </c>
       <c r="K10">
-        <v>19.85166509829246</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.324690732968665</v>
+        <v>6.942228143987183</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.76889323830482</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.16451394428897</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.61190522016587</v>
+        <v>33.56673813046454</v>
       </c>
       <c r="C11">
-        <v>13.29462218215196</v>
+        <v>20.54444026423671</v>
       </c>
       <c r="D11">
-        <v>6.988744501311844</v>
+        <v>4.303520560122532</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.29074708316767</v>
+        <v>50.89539503846656</v>
       </c>
       <c r="G11">
-        <v>2.0866557067691</v>
+        <v>2.07332358746322</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.35558649559334</v>
+        <v>5.907519108171975</v>
       </c>
       <c r="K11">
-        <v>20.68736076513318</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.366520790386803</v>
+        <v>6.998663028342896</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.22906010432605</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.02522441910954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.98432244229553</v>
+        <v>33.99377465608926</v>
       </c>
       <c r="C12">
-        <v>13.49806783871449</v>
+        <v>20.84252081365788</v>
       </c>
       <c r="D12">
-        <v>7.075437171985459</v>
+        <v>4.365678994237913</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.20105377142674</v>
+        <v>51.34956441212877</v>
       </c>
       <c r="G12">
-        <v>2.08235219624132</v>
+        <v>2.069534938879837</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.37235734562014</v>
+        <v>5.900787187398197</v>
       </c>
       <c r="K12">
-        <v>21.00122503670711</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.383662121365459</v>
+        <v>7.020642025153591</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.40356273778937</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.97344165601283</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.90420804527105</v>
+        <v>33.90194210718902</v>
       </c>
       <c r="C13">
-        <v>13.45431689966899</v>
+        <v>20.77848438111928</v>
       </c>
       <c r="D13">
-        <v>7.056784236018919</v>
+        <v>4.352301321202143</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.00507860126501</v>
+        <v>51.25153576974849</v>
       </c>
       <c r="G13">
-        <v>2.083280046556408</v>
+        <v>2.070351177251876</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.368724744091865</v>
+        <v>5.902234734704096</v>
       </c>
       <c r="K13">
-        <v>20.93373658250221</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.379910866336861</v>
+        <v>7.015880879178134</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.36596848704563</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.98454974868712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.64258653926115</v>
+        <v>33.60193300011004</v>
       </c>
       <c r="C14">
-        <v>13.3113895118678</v>
+        <v>20.56903638555726</v>
       </c>
       <c r="D14">
-        <v>6.995884994541046</v>
+        <v>4.308638709615293</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.36567410431506</v>
+        <v>50.93266349568666</v>
       </c>
       <c r="G14">
-        <v>2.086302093696548</v>
+        <v>2.07301201047449</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.356956996071785</v>
+        <v>5.906964231767692</v>
       </c>
       <c r="K14">
-        <v>20.7132318768616</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.367904335655185</v>
+        <v>7.000458876112438</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.24341124144613</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>15.02094441331786</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.48205700075858</v>
+        <v>33.41776178621728</v>
       </c>
       <c r="C15">
-        <v>13.22364622765788</v>
+        <v>20.44026739804174</v>
       </c>
       <c r="D15">
-        <v>6.958528029218678</v>
+        <v>4.281865057076546</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.97378203457605</v>
+        <v>50.73796782093986</v>
       </c>
       <c r="G15">
-        <v>2.088150416937154</v>
+        <v>2.074641141881535</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.349808588214364</v>
+        <v>5.909867947484448</v>
       </c>
       <c r="K15">
-        <v>20.57784227077926</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.36072255490532</v>
+        <v>6.991092631664679</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.16837531618162</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>15.04336521021098</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.55750476437177</v>
+        <v>32.35592982134699</v>
       </c>
       <c r="C16">
-        <v>12.71754069358341</v>
+        <v>19.69479646021642</v>
       </c>
       <c r="D16">
-        <v>6.743531029949589</v>
+        <v>4.12790958696241</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.72367484381617</v>
+        <v>49.63150229974387</v>
       </c>
       <c r="G16">
-        <v>2.098708232889898</v>
+        <v>2.08397167698936</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.309719443986793</v>
+        <v>5.926613811433996</v>
       </c>
       <c r="K16">
-        <v>19.79666246355493</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.322133532278527</v>
+        <v>6.938623407206834</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.73885212268613</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.17374704465064</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.05128944891178</v>
+        <v>31.69863018566124</v>
       </c>
       <c r="C17">
-        <v>12.40384602850108</v>
+        <v>19.23047911684813</v>
       </c>
       <c r="D17">
-        <v>6.610731998717975</v>
+        <v>4.032909811160104</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.33878794431453</v>
+        <v>48.96070312015444</v>
       </c>
       <c r="G17">
-        <v>2.105163047104448</v>
+        <v>2.089696509520413</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.285867074032594</v>
+        <v>5.936983677591617</v>
       </c>
       <c r="K17">
-        <v>19.31233619911463</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.300669891225979</v>
+        <v>6.907485729364146</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.47574578721366</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.2553600257454</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.76319043295611</v>
+        <v>31.31834475763663</v>
       </c>
       <c r="C18">
-        <v>12.22212933987514</v>
+        <v>18.96074755715319</v>
       </c>
       <c r="D18">
-        <v>6.533986073879881</v>
+        <v>3.97803418033987</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.54035108973079</v>
+        <v>48.57771391327517</v>
       </c>
       <c r="G18">
-        <v>2.108870717684696</v>
+        <v>2.092991711513589</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.272405130751121</v>
+        <v>5.942984666562412</v>
       </c>
       <c r="K18">
-        <v>19.0317609795739</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.289105921771575</v>
+        <v>6.889952936607193</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.32454975907078</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.30287618879332</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.66559361669067</v>
+        <v>31.18920044443617</v>
       </c>
       <c r="C19">
-        <v>12.16037250846051</v>
+        <v>18.86895394022516</v>
       </c>
       <c r="D19">
-        <v>6.507936149275566</v>
+        <v>3.959411231383316</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.26967159797779</v>
+        <v>48.4485196157225</v>
       </c>
       <c r="G19">
-        <v>2.110125498463799</v>
+        <v>2.094108018279774</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.267889996110742</v>
+        <v>5.945022857929884</v>
       </c>
       <c r="K19">
-        <v>18.93640744834499</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.285321978833</v>
+        <v>6.884080509582691</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.27338035479998</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.31906094940472</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10458702626212</v>
+        <v>31.76882996661924</v>
       </c>
       <c r="C20">
-        <v>12.43737035258571</v>
+        <v>19.2801805450622</v>
       </c>
       <c r="D20">
-        <v>6.624905649877269</v>
+        <v>4.043046277482109</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.48640219698032</v>
+        <v>49.03181528531061</v>
       </c>
       <c r="G20">
-        <v>2.104476502972376</v>
+        <v>2.089086885790494</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.288379244587995</v>
+        <v>5.93587602929829</v>
       </c>
       <c r="K20">
-        <v>19.36409813844104</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.302873197718823</v>
+        <v>6.910761192079922</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.50373974358419</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.24661221901706</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.71948833739967</v>
+        <v>33.6901372816696</v>
       </c>
       <c r="C21">
-        <v>13.35341093335902</v>
+        <v>20.63065492473546</v>
       </c>
       <c r="D21">
-        <v>7.013783704754944</v>
+        <v>4.321469327422632</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.55353063422073</v>
+        <v>51.02619347832813</v>
       </c>
       <c r="G21">
-        <v>2.085415042521468</v>
+        <v>2.072230619833765</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.360400934864035</v>
+        <v>5.905573659871173</v>
       </c>
       <c r="K21">
-        <v>20.77806612568137</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.371394789544038</v>
+        <v>7.004971923944909</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.27940208562372</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.01022757739395</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.79980239478275</v>
+        <v>34.96032531193968</v>
       </c>
       <c r="C22">
-        <v>13.94302411405141</v>
+        <v>21.49169149628714</v>
       </c>
       <c r="D22">
-        <v>7.265415576419086</v>
+        <v>4.502048932835643</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.2003130139101</v>
+        <v>52.35723236896892</v>
       </c>
       <c r="G22">
-        <v>2.072842091269632</v>
+        <v>2.06118833211407</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.410100778443418</v>
+        <v>5.886074502799869</v>
       </c>
       <c r="K22">
-        <v>21.68730646768952</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.423817124906027</v>
+        <v>7.070107081478416</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.78783107564707</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.86139968814791</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.22422814449939</v>
+        <v>34.26866143294841</v>
       </c>
       <c r="C23">
-        <v>13.62903839857296</v>
+        <v>21.03399915849947</v>
       </c>
       <c r="D23">
-        <v>7.131305882496368</v>
+        <v>4.405759551445041</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.78838774154816</v>
+        <v>51.64416868393451</v>
       </c>
       <c r="G23">
-        <v>2.079566855636561</v>
+        <v>2.067086667095638</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.383316380065088</v>
+        <v>5.896454619996286</v>
       </c>
       <c r="K23">
-        <v>21.20322655164123</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.395103581236292</v>
+        <v>7.035006196007281</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.51631451173128</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.94028354877368</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.08049243862584</v>
+        <v>31.73710011900233</v>
       </c>
       <c r="C24">
-        <v>12.42221829604783</v>
+        <v>19.25771924048625</v>
       </c>
       <c r="D24">
-        <v>6.618498989017181</v>
+        <v>4.038464395039855</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.41967284500143</v>
+        <v>48.99965720601824</v>
       </c>
       <c r="G24">
-        <v>2.10478689908095</v>
+        <v>2.089362483973842</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.287242713671481</v>
+        <v>5.936376674724133</v>
       </c>
       <c r="K24">
-        <v>19.34070322940765</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.301874673739897</v>
+        <v>6.909279209233381</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.49108346820802</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.25056525235513</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.97247941550219</v>
+        <v>28.92143715270984</v>
       </c>
       <c r="C25">
-        <v>11.07028345345913</v>
+        <v>17.23876729368348</v>
       </c>
       <c r="D25">
-        <v>6.051253693954763</v>
+        <v>3.633050515421252</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.55572862967423</v>
+        <v>46.25518192192209</v>
       </c>
       <c r="G25">
-        <v>2.131828554239563</v>
+        <v>2.113503225106257</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.193313697014708</v>
+        <v>5.980846505236478</v>
       </c>
       <c r="K25">
-        <v>17.26575996292419</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.230883624698008</v>
+        <v>6.787979113039685</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.39060350309745</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.60704461767074</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.77269888390316</v>
+        <v>28.49229048257739</v>
       </c>
       <c r="C2">
-        <v>15.65376937184489</v>
+        <v>10.57254853506121</v>
       </c>
       <c r="D2">
-        <v>3.323619976972143</v>
+        <v>3.830039077387625</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.31992300188836</v>
+        <v>56.24765701318223</v>
       </c>
       <c r="G2">
-        <v>2.13158637478064</v>
+        <v>3.791572029002654</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.014910536186522</v>
+        <v>9.821912057493767</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.710028044367375</v>
+        <v>11.70496252890569</v>
       </c>
       <c r="M2">
-        <v>15.58548031805381</v>
+        <v>21.9996927765327</v>
       </c>
       <c r="N2">
-        <v>15.886206213792</v>
+        <v>23.53048010724265</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.27093492797603</v>
+        <v>28.24294725512831</v>
       </c>
       <c r="C3">
-        <v>14.51403290706715</v>
+        <v>10.19742042821624</v>
       </c>
       <c r="D3">
-        <v>3.105939847474619</v>
+        <v>3.76759115399786</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.06004931032727</v>
+        <v>56.153901398131</v>
       </c>
       <c r="G3">
-        <v>2.144122223336696</v>
+        <v>3.795981986361284</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.038873102721316</v>
+        <v>9.829207313864083</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.663874303014524</v>
+        <v>11.72431416743099</v>
       </c>
       <c r="M3">
-        <v>15.04428143322943</v>
+        <v>21.97347256535217</v>
       </c>
       <c r="N3">
-        <v>16.085079987751</v>
+        <v>23.58581786079055</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.32781231598317</v>
+        <v>28.09680786055588</v>
       </c>
       <c r="C4">
-        <v>13.78070329352161</v>
+        <v>9.963695142295386</v>
       </c>
       <c r="D4">
-        <v>2.968049973415986</v>
+        <v>3.728138905517848</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.31182591826504</v>
+        <v>56.10886182582507</v>
       </c>
       <c r="G4">
-        <v>2.151983082794591</v>
+        <v>3.798829396249521</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.054035478241406</v>
+        <v>9.83392495012912</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.638702522048481</v>
+        <v>11.7376838585659</v>
       </c>
       <c r="M4">
-        <v>14.71482122182057</v>
+        <v>21.96193486391492</v>
       </c>
       <c r="N4">
-        <v>16.21178808775116</v>
+        <v>23.6217764214887</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.93851465180976</v>
+        <v>28.03906233666212</v>
       </c>
       <c r="C5">
-        <v>13.47327835583687</v>
+        <v>9.86776813456725</v>
       </c>
       <c r="D5">
-        <v>2.91075874469014</v>
+        <v>3.711789051060111</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.01330273858236</v>
+        <v>56.09366072387819</v>
       </c>
       <c r="G5">
-        <v>2.155231032415781</v>
+        <v>3.800025002313178</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.060329567172209</v>
+        <v>9.835907521418337</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.629223510196571</v>
+        <v>11.74350647444129</v>
       </c>
       <c r="M5">
-        <v>14.58139726357316</v>
+        <v>21.95838308585659</v>
       </c>
       <c r="N5">
-        <v>16.26455741732126</v>
+        <v>23.63692806849003</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.87358336825943</v>
+        <v>28.0295845163205</v>
       </c>
       <c r="C6">
-        <v>13.42170775699059</v>
+        <v>9.851803620306187</v>
       </c>
       <c r="D6">
-        <v>2.901178257376968</v>
+        <v>3.709057880485368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.96411931239805</v>
+        <v>56.09132705366156</v>
       </c>
       <c r="G6">
-        <v>2.155773138833463</v>
+        <v>3.800225665726589</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.061381726100093</v>
+        <v>9.836240360504899</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.627696049886865</v>
+        <v>11.74449593296603</v>
       </c>
       <c r="M6">
-        <v>14.55929648872979</v>
+        <v>21.95786283727399</v>
       </c>
       <c r="N6">
-        <v>16.27338770991795</v>
+        <v>23.63947408423449</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.32258172778128</v>
+        <v>28.09602169251018</v>
       </c>
       <c r="C7">
-        <v>13.77659221829321</v>
+        <v>9.962403961671312</v>
       </c>
       <c r="D7">
-        <v>2.967281818876245</v>
+        <v>3.727919501686715</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.30777405811617</v>
+        <v>56.1086440509082</v>
       </c>
       <c r="G7">
-        <v>2.152026700966234</v>
+        <v>3.798845377647443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.05411989266524</v>
+        <v>9.833951444225736</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.638571554891085</v>
+        <v>11.737760868314</v>
       </c>
       <c r="M7">
-        <v>14.71301827337244</v>
+        <v>21.96188230424066</v>
       </c>
       <c r="N7">
-        <v>16.21249518421814</v>
+        <v>23.62197874447249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.25941854121775</v>
+        <v>28.40490848097757</v>
       </c>
       <c r="C8">
-        <v>15.267647407508</v>
+        <v>10.44400769509147</v>
       </c>
       <c r="D8">
-        <v>3.249418676557354</v>
+        <v>3.808740790689477</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.88025918926435</v>
+        <v>56.21273266352</v>
       </c>
       <c r="G8">
-        <v>2.13587687749853</v>
+        <v>3.793063676653002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.023081012741134</v>
+        <v>9.824378100595222</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.693446198300103</v>
+        <v>11.71132636270364</v>
       </c>
       <c r="M8">
-        <v>15.3983524671304</v>
+        <v>21.98970723447078</v>
       </c>
       <c r="N8">
-        <v>15.95380895898965</v>
+        <v>23.54914948390467</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.8816436564011</v>
+        <v>29.06313999488848</v>
       </c>
       <c r="C9">
-        <v>17.93354223429044</v>
+        <v>11.35466862806599</v>
       </c>
       <c r="D9">
-        <v>3.771135040166151</v>
+        <v>3.958178122253711</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.1660370445259</v>
+        <v>56.51601020696141</v>
       </c>
       <c r="G9">
-        <v>2.105336357604594</v>
+        <v>3.782827669338274</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.965668792754007</v>
+        <v>9.807488023456786</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.827015666378852</v>
+        <v>11.67128107738208</v>
       </c>
       <c r="M9">
-        <v>16.76059989921715</v>
+        <v>22.08030894500214</v>
       </c>
       <c r="N9">
-        <v>15.48425593935247</v>
+        <v>23.42204387815716</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.43063459555195</v>
+        <v>29.57492025507288</v>
       </c>
       <c r="C10">
-        <v>19.74742364045008</v>
+        <v>11.99502731106717</v>
       </c>
       <c r="D10">
-        <v>4.138720164337045</v>
+        <v>4.06213322687553</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.70843611215173</v>
+        <v>56.79881293847562</v>
       </c>
       <c r="G10">
-        <v>2.083318613146126</v>
+        <v>3.775970070036327</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.925435418121874</v>
+        <v>9.796216073330413</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.942228143987183</v>
+        <v>11.64903324820778</v>
       </c>
       <c r="M10">
-        <v>17.76889323830482</v>
+        <v>22.16858744706671</v>
       </c>
       <c r="N10">
-        <v>15.16451394428897</v>
+        <v>23.33822962239908</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.56673813046454</v>
+        <v>29.81299806449203</v>
       </c>
       <c r="C11">
-        <v>20.54444026423671</v>
+        <v>12.27867702259136</v>
       </c>
       <c r="D11">
-        <v>4.303520560122532</v>
+        <v>4.108096237586176</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.89539503846656</v>
+        <v>56.94033876548721</v>
       </c>
       <c r="G11">
-        <v>2.07332358746322</v>
+        <v>3.77299237611715</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.907519108171975</v>
+        <v>9.791332789745223</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.998663028342896</v>
+        <v>11.64046606023259</v>
       </c>
       <c r="M11">
-        <v>18.22906010432605</v>
+        <v>22.21339177311807</v>
       </c>
       <c r="N11">
-        <v>15.02522441910954</v>
+        <v>23.30217716679218</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99377465608926</v>
+        <v>29.90383460124243</v>
       </c>
       <c r="C12">
-        <v>20.84252081365788</v>
+        <v>12.38488591900053</v>
       </c>
       <c r="D12">
-        <v>4.365678994237913</v>
+        <v>4.125305597988416</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.34956441212877</v>
+        <v>56.99576512413854</v>
       </c>
       <c r="G12">
-        <v>2.069534938879837</v>
+        <v>3.771885052838776</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.900787187398197</v>
+        <v>9.789518585972115</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.020642025153591</v>
+        <v>11.63744491571997</v>
       </c>
       <c r="M12">
-        <v>18.40356273778937</v>
+        <v>22.23101875033208</v>
       </c>
       <c r="N12">
-        <v>14.97344165601283</v>
+        <v>23.28882347605137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.90194210718902</v>
+        <v>29.88424222468143</v>
       </c>
       <c r="C13">
-        <v>20.77848438111928</v>
+        <v>12.36206694407065</v>
       </c>
       <c r="D13">
-        <v>4.352301321202143</v>
+        <v>4.121608041401364</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.25153576974849</v>
+        <v>56.98374683261521</v>
       </c>
       <c r="G13">
-        <v>2.070351177251876</v>
+        <v>3.772122635580261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.902234734704096</v>
+        <v>9.789907753446531</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.015880879178134</v>
+        <v>11.63808565784313</v>
       </c>
       <c r="M13">
-        <v>18.36596848704563</v>
+        <v>22.22719321535806</v>
       </c>
       <c r="N13">
-        <v>14.98454974868712</v>
+        <v>23.29168614878466</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.60193300011004</v>
+        <v>29.82045801620747</v>
       </c>
       <c r="C14">
-        <v>20.56903638555726</v>
+        <v>12.28743954820858</v>
       </c>
       <c r="D14">
-        <v>4.308638709615293</v>
+        <v>4.10951601471941</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.93266349568666</v>
+        <v>56.94486209046237</v>
       </c>
       <c r="G14">
-        <v>2.07301201047449</v>
+        <v>3.772900870599395</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.906964231767692</v>
+        <v>9.791182833729476</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.000458876112438</v>
+        <v>11.64021304026787</v>
       </c>
       <c r="M14">
-        <v>18.24341124144613</v>
+        <v>22.21482876261416</v>
       </c>
       <c r="N14">
-        <v>15.02094441331786</v>
+        <v>23.30107256514391</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.41776178621728</v>
+        <v>29.7814748566587</v>
       </c>
       <c r="C15">
-        <v>20.44026739804174</v>
+        <v>12.24156860033137</v>
       </c>
       <c r="D15">
-        <v>4.281865057076546</v>
+        <v>4.102083650918821</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.73796782093986</v>
+        <v>56.92128226902895</v>
       </c>
       <c r="G15">
-        <v>2.074641141881535</v>
+        <v>3.773380197096658</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.909867947484448</v>
+        <v>9.791968409422731</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.991092631664679</v>
+        <v>11.64154516288402</v>
       </c>
       <c r="M15">
-        <v>18.16837531618162</v>
+        <v>22.20734096475024</v>
       </c>
       <c r="N15">
-        <v>15.04336521021098</v>
+        <v>23.30686090810401</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.35592982134699</v>
+        <v>29.55946083584973</v>
       </c>
       <c r="C16">
-        <v>19.69479646021642</v>
+        <v>11.9763270837746</v>
       </c>
       <c r="D16">
-        <v>4.12790958696241</v>
+        <v>4.059102300362508</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.63150229974387</v>
+        <v>56.78982152634759</v>
       </c>
       <c r="G16">
-        <v>2.08397167698936</v>
+        <v>3.776167512434114</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.926613811433996</v>
+        <v>9.796540111962331</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.938623407206834</v>
+        <v>11.64962436676468</v>
       </c>
       <c r="M16">
-        <v>17.73885212268613</v>
+        <v>22.16575224162343</v>
       </c>
       <c r="N16">
-        <v>15.17374704465064</v>
+        <v>23.34062750715593</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.69863018566124</v>
+        <v>29.42455774023318</v>
       </c>
       <c r="C17">
-        <v>19.23047911684813</v>
+        <v>11.81157293754594</v>
       </c>
       <c r="D17">
-        <v>4.032909811160104</v>
+        <v>4.032391142327256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.96070312015444</v>
+        <v>56.71246074088248</v>
       </c>
       <c r="G17">
-        <v>2.089696509520413</v>
+        <v>3.77791367839912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.936983677591617</v>
+        <v>9.799407186976641</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.907485729364146</v>
+        <v>11.65497835446592</v>
       </c>
       <c r="M17">
-        <v>17.47574578721366</v>
+        <v>22.14142374098401</v>
       </c>
       <c r="N17">
-        <v>15.2553600257454</v>
+        <v>23.36187382853584</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.31834475763663</v>
+        <v>29.34746534860467</v>
       </c>
       <c r="C18">
-        <v>18.96074755715319</v>
+        <v>11.71609571556522</v>
       </c>
       <c r="D18">
-        <v>3.97803418033987</v>
+        <v>4.016902999896208</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.57771391327517</v>
+        <v>56.66917820298873</v>
       </c>
       <c r="G18">
-        <v>2.092991711513589</v>
+        <v>3.77893138768043</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.942984666562412</v>
+        <v>9.801079264203045</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.889952936607193</v>
+        <v>11.6582040666711</v>
       </c>
       <c r="M18">
-        <v>17.32454975907078</v>
+        <v>22.12786843464806</v>
       </c>
       <c r="N18">
-        <v>15.30287618879332</v>
+        <v>23.37428945218527</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18920044443617</v>
+        <v>29.3214514070316</v>
       </c>
       <c r="C19">
-        <v>18.86895394022516</v>
+        <v>11.68364930121321</v>
       </c>
       <c r="D19">
-        <v>3.959411231383316</v>
+        <v>4.01163774152324</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.4485196157225</v>
+        <v>56.65473238247638</v>
       </c>
       <c r="G19">
-        <v>2.094108018279774</v>
+        <v>3.779278265399989</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.945022857929884</v>
+        <v>9.801649357730769</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.884080509582691</v>
+        <v>11.65932136364057</v>
       </c>
       <c r="M19">
-        <v>17.27338035479998</v>
+        <v>22.12335425094766</v>
       </c>
       <c r="N19">
-        <v>15.31906094940472</v>
+        <v>23.37852670665094</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.76882996661924</v>
+        <v>29.43886717120623</v>
       </c>
       <c r="C20">
-        <v>19.2801805450622</v>
+        <v>11.82918608006789</v>
       </c>
       <c r="D20">
-        <v>4.043046277482109</v>
+        <v>4.035247522975948</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.03181528531061</v>
+        <v>56.72057047591446</v>
       </c>
       <c r="G20">
-        <v>2.089086885790494</v>
+        <v>3.777726414237591</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.93587602929829</v>
+        <v>9.799099601451074</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.910761192079922</v>
+        <v>11.65439328029556</v>
       </c>
       <c r="M20">
-        <v>17.50373974358419</v>
+        <v>22.14396829253663</v>
       </c>
       <c r="N20">
-        <v>15.24661221901706</v>
+        <v>23.35959190705693</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.6901372816696</v>
+        <v>29.83917509184291</v>
       </c>
       <c r="C21">
-        <v>20.63065492473546</v>
+        <v>12.30939283174444</v>
       </c>
       <c r="D21">
-        <v>4.321469327422632</v>
+        <v>4.113073089758227</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.02619347832813</v>
+        <v>56.9562338758808</v>
       </c>
       <c r="G21">
-        <v>2.072230619833765</v>
+        <v>3.772671735202249</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.905573659871173</v>
+        <v>9.790807363336812</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.004971923944909</v>
+        <v>11.63958212529748</v>
       </c>
       <c r="M21">
-        <v>18.27940208562372</v>
+        <v>22.21844263880021</v>
       </c>
       <c r="N21">
-        <v>15.01022757739395</v>
+        <v>23.29830744167934</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.96032531193968</v>
+        <v>30.10473701967654</v>
       </c>
       <c r="C22">
-        <v>21.49169149628714</v>
+        <v>12.61618407832912</v>
       </c>
       <c r="D22">
-        <v>4.502048932835643</v>
+        <v>4.162792994389029</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.35723236896892</v>
+        <v>57.1209309354124</v>
       </c>
       <c r="G22">
-        <v>2.06118833211407</v>
+        <v>3.769486266591958</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.886074502799869</v>
+        <v>9.785591783709284</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.070107081478416</v>
+        <v>11.63120219652038</v>
       </c>
       <c r="M22">
-        <v>18.78783107564707</v>
+        <v>22.27096209463414</v>
       </c>
       <c r="N22">
-        <v>14.86139968814791</v>
+        <v>23.25999503766701</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.26866143294841</v>
+        <v>29.96266650946522</v>
       </c>
       <c r="C23">
-        <v>21.03399915849947</v>
+        <v>12.45311979855966</v>
       </c>
       <c r="D23">
-        <v>4.405759551445041</v>
+        <v>4.136362777404521</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.64416868393451</v>
+        <v>57.03205868996785</v>
       </c>
       <c r="G23">
-        <v>2.067086667095638</v>
+        <v>3.771175653436538</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.896454619996286</v>
+        <v>9.788356831854408</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.035006196007281</v>
+        <v>11.6355558838757</v>
       </c>
       <c r="M23">
-        <v>18.51631451173128</v>
+        <v>22.24258223539817</v>
       </c>
       <c r="N23">
-        <v>14.94028354877368</v>
+        <v>23.28028375511849</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.73710011900233</v>
+        <v>29.43239642275629</v>
       </c>
       <c r="C24">
-        <v>19.25771924048625</v>
+        <v>11.82122553100465</v>
       </c>
       <c r="D24">
-        <v>4.038464395039855</v>
+        <v>4.033956562621077</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.99965720601824</v>
+        <v>56.71690034678274</v>
       </c>
       <c r="G24">
-        <v>2.089362483973842</v>
+        <v>3.777811033323624</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.936376674724133</v>
+        <v>9.799238586856053</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.909279209233381</v>
+        <v>11.65465733245914</v>
       </c>
       <c r="M24">
-        <v>17.49108346820802</v>
+        <v>22.14281655627617</v>
       </c>
       <c r="N24">
-        <v>15.25056525235513</v>
+        <v>23.36062293823021</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.92143715270984</v>
+        <v>28.87983539805398</v>
       </c>
       <c r="C25">
-        <v>17.23876729368348</v>
+        <v>11.11281931834974</v>
       </c>
       <c r="D25">
-        <v>3.633050515421252</v>
+        <v>3.918754392649204</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.25518192192209</v>
+        <v>56.42338732843267</v>
       </c>
       <c r="G25">
-        <v>2.113503225106257</v>
+        <v>3.78547974194996</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.980846505236478</v>
+        <v>9.811856754106879</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.787979113039685</v>
+        <v>11.68085342662645</v>
       </c>
       <c r="M25">
-        <v>16.39060350309745</v>
+        <v>22.05196398252703</v>
       </c>
       <c r="N25">
-        <v>15.60704461767074</v>
+        <v>23.45474818215582</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -421,22 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.49229048257739</v>
+        <v>25.12066508047199</v>
       </c>
       <c r="C2">
-        <v>10.57254853506121</v>
+        <v>18.50717636739467</v>
       </c>
       <c r="D2">
-        <v>3.830039077387625</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.553898362447198</v>
       </c>
       <c r="F2">
-        <v>56.24765701318223</v>
+        <v>34.02244805858481</v>
       </c>
       <c r="G2">
-        <v>3.791572029002654</v>
+        <v>2.05112261921371</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -444,20 +441,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>9.821912057493767</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>11.70496252890569</v>
-      </c>
-      <c r="M2">
-        <v>21.9996927765327</v>
-      </c>
       <c r="N2">
-        <v>23.53048010724265</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.24294725512831</v>
+        <v>23.32294356700529</v>
       </c>
       <c r="C3">
-        <v>10.19742042821624</v>
+        <v>17.21087892886631</v>
       </c>
       <c r="D3">
-        <v>3.76759115399786</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.679471898860432</v>
       </c>
       <c r="F3">
-        <v>56.153901398131</v>
+        <v>32.23415050789163</v>
       </c>
       <c r="G3">
-        <v>3.795981986361284</v>
+        <v>2.063671027823775</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,20 +476,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>9.829207313864083</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>11.72431416743099</v>
-      </c>
-      <c r="M3">
-        <v>21.97347256535217</v>
-      </c>
       <c r="N3">
-        <v>23.58581786079055</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.09680786055588</v>
+        <v>22.16404985398539</v>
       </c>
       <c r="C4">
-        <v>9.963695142295386</v>
+        <v>16.37545588287081</v>
       </c>
       <c r="D4">
-        <v>3.728138905517848</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.759503404831634</v>
       </c>
       <c r="F4">
-        <v>56.10886182582507</v>
+        <v>31.14658319201852</v>
       </c>
       <c r="G4">
-        <v>3.798829396249521</v>
+        <v>2.071507428230089</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -538,20 +511,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>9.83392495012912</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>11.7376838585659</v>
-      </c>
-      <c r="M4">
-        <v>21.96193486391492</v>
-      </c>
       <c r="N4">
-        <v>23.6217764214887</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.03906233666212</v>
+        <v>21.67766943158848</v>
       </c>
       <c r="C5">
-        <v>9.86776813456725</v>
+        <v>16.02488370029559</v>
       </c>
       <c r="D5">
-        <v>3.711789051060111</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.792794968854433</v>
       </c>
       <c r="F5">
-        <v>56.09366072387819</v>
+        <v>30.70628172688132</v>
       </c>
       <c r="G5">
-        <v>3.800025002313178</v>
+        <v>2.074737947957455</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -585,20 +546,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>9.835907521418337</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>11.74350647444129</v>
-      </c>
-      <c r="M5">
-        <v>21.95838308585659</v>
-      </c>
       <c r="N5">
-        <v>23.63692806849003</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.0295845163205</v>
+        <v>21.59604590236445</v>
       </c>
       <c r="C6">
-        <v>9.851803620306187</v>
+        <v>15.96605406594505</v>
       </c>
       <c r="D6">
-        <v>3.709057880485368</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.798362538024393</v>
       </c>
       <c r="F6">
-        <v>56.09132705366156</v>
+        <v>30.63335419682891</v>
       </c>
       <c r="G6">
-        <v>3.800225665726589</v>
+        <v>2.075276726001727</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -632,20 +581,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>9.836240360504899</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>11.74449593296603</v>
-      </c>
-      <c r="M6">
-        <v>21.95786283727399</v>
-      </c>
       <c r="N6">
-        <v>23.63947408423449</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.09602169251018</v>
+        <v>22.15754787882375</v>
       </c>
       <c r="C7">
-        <v>9.962403961671312</v>
+        <v>16.37076921455001</v>
       </c>
       <c r="D7">
-        <v>3.727919501686715</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.759949707178319</v>
       </c>
       <c r="F7">
-        <v>56.1086440509082</v>
+        <v>31.14063300677193</v>
       </c>
       <c r="G7">
-        <v>3.798845377647443</v>
+        <v>2.071550840791102</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -679,20 +616,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>9.833951444225736</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>11.737760868314</v>
-      </c>
-      <c r="M7">
-        <v>21.96188230424066</v>
-      </c>
       <c r="N7">
-        <v>23.62197874447249</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.40490848097757</v>
+        <v>24.51207418911764</v>
       </c>
       <c r="C8">
-        <v>10.44400769509147</v>
+        <v>18.06828337257599</v>
       </c>
       <c r="D8">
-        <v>3.808740790689477</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.596547931528911</v>
       </c>
       <c r="F8">
-        <v>56.21273266352</v>
+        <v>33.40379692199351</v>
       </c>
       <c r="G8">
-        <v>3.793063676653002</v>
+        <v>2.055424538320198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -726,20 +651,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>9.824378100595222</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>11.71132636270364</v>
-      </c>
-      <c r="M8">
-        <v>21.98970723447078</v>
-      </c>
       <c r="N8">
-        <v>23.54914948390467</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.06313999488848</v>
+        <v>28.70565874362189</v>
       </c>
       <c r="C9">
-        <v>11.35466862806599</v>
+        <v>21.09380119068834</v>
       </c>
       <c r="D9">
-        <v>3.958178122253711</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.303033518747343</v>
       </c>
       <c r="F9">
-        <v>56.51601020696141</v>
+        <v>37.9196483680248</v>
       </c>
       <c r="G9">
-        <v>3.782827669338274</v>
+        <v>2.024640570915208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -773,20 +686,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>9.807488023456786</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>11.67128107738208</v>
-      </c>
-      <c r="M9">
-        <v>22.08030894500214</v>
-      </c>
       <c r="N9">
-        <v>23.42204387815716</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.57492025507288</v>
+        <v>31.5494315685665</v>
       </c>
       <c r="C10">
-        <v>11.99502731106717</v>
+        <v>23.14756063989128</v>
       </c>
       <c r="D10">
-        <v>4.06213322687553</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>3.111160900277084</v>
       </c>
       <c r="F10">
-        <v>56.79881293847562</v>
+        <v>41.28892695156152</v>
       </c>
       <c r="G10">
-        <v>3.775970070036327</v>
+        <v>2.002207640482395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -820,20 +721,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>9.796216073330413</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>11.64903324820778</v>
-      </c>
-      <c r="M10">
-        <v>22.16858744706671</v>
-      </c>
       <c r="N10">
-        <v>23.33822962239908</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.81299806449203</v>
+        <v>32.7970724607062</v>
       </c>
       <c r="C11">
-        <v>12.27867702259136</v>
+        <v>24.04929482422324</v>
       </c>
       <c r="D11">
-        <v>4.108096237586176</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>3.031572387223508</v>
       </c>
       <c r="F11">
-        <v>56.94033876548721</v>
+        <v>42.87531494114151</v>
       </c>
       <c r="G11">
-        <v>3.77299237611715</v>
+        <v>1.991954538386354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -867,20 +756,11 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>9.791332789745223</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>11.64046606023259</v>
-      </c>
-      <c r="M11">
-        <v>22.21339177311807</v>
-      </c>
       <c r="N11">
-        <v>23.30217716679218</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.90383460124243</v>
+        <v>33.2634375847348</v>
       </c>
       <c r="C12">
-        <v>12.38488591900053</v>
+        <v>24.3864867254996</v>
       </c>
       <c r="D12">
-        <v>4.125305597988416</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3.002844237690956</v>
       </c>
       <c r="F12">
-        <v>56.99576512413854</v>
+        <v>43.51406593954543</v>
       </c>
       <c r="G12">
-        <v>3.771885052838776</v>
+        <v>1.98805624994676</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -914,20 +791,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>9.789518585972115</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>11.63744491571997</v>
-      </c>
-      <c r="M12">
-        <v>22.23101875033208</v>
-      </c>
       <c r="N12">
-        <v>23.28882347605137</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.88424222468143</v>
+        <v>33.16325909495887</v>
       </c>
       <c r="C13">
-        <v>12.36206694407065</v>
+        <v>24.31404946246923</v>
       </c>
       <c r="D13">
-        <v>4.121608041401364</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>3.00896281981484</v>
       </c>
       <c r="F13">
-        <v>56.98374683261521</v>
+        <v>43.37646756260629</v>
       </c>
       <c r="G13">
-        <v>3.772122635580261</v>
+        <v>1.988896667408351</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -961,20 +826,11 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>9.789907753446531</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>11.63808565784313</v>
-      </c>
-      <c r="M13">
-        <v>22.22719321535806</v>
-      </c>
       <c r="N13">
-        <v>23.29168614878466</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.82045801620747</v>
+        <v>32.83555934107662</v>
       </c>
       <c r="C14">
-        <v>12.28743954820858</v>
+        <v>24.07711895456259</v>
       </c>
       <c r="D14">
-        <v>4.10951601471941</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>3.029178577428125</v>
       </c>
       <c r="F14">
-        <v>56.94486209046237</v>
+        <v>42.92785236076709</v>
       </c>
       <c r="G14">
-        <v>3.772900870599395</v>
+        <v>1.991634192930609</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1008,20 +861,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>9.791182833729476</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>11.64021304026787</v>
-      </c>
-      <c r="M14">
-        <v>22.21482876261416</v>
-      </c>
       <c r="N14">
-        <v>23.30107256514391</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.7814748566587</v>
+        <v>32.63405773330384</v>
       </c>
       <c r="C15">
-        <v>12.24156860033137</v>
+        <v>23.9314484380003</v>
       </c>
       <c r="D15">
-        <v>4.102083650918821</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>3.041755524139105</v>
       </c>
       <c r="F15">
-        <v>56.92128226902895</v>
+        <v>42.65314008506419</v>
       </c>
       <c r="G15">
-        <v>3.773380197096658</v>
+        <v>1.993308683026765</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1055,20 +896,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>9.791968409422731</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>11.64154516288402</v>
-      </c>
-      <c r="M15">
-        <v>22.20734096475024</v>
-      </c>
       <c r="N15">
-        <v>23.30686090810401</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.55946083584973</v>
+        <v>31.46701276973545</v>
       </c>
       <c r="C16">
-        <v>11.9763270837746</v>
+        <v>23.08800861018754</v>
       </c>
       <c r="D16">
-        <v>4.059102300362508</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>3.116541026543988</v>
       </c>
       <c r="F16">
-        <v>56.78982152634759</v>
+        <v>41.18810170100363</v>
       </c>
       <c r="G16">
-        <v>3.776167512434114</v>
+        <v>2.002876020472171</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1102,20 +931,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>9.796540111962331</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>11.64962436676468</v>
-      </c>
-      <c r="M16">
-        <v>22.16575224162343</v>
-      </c>
       <c r="N16">
-        <v>23.34062750715593</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.42455774023318</v>
+        <v>30.73963593102712</v>
       </c>
       <c r="C17">
-        <v>11.81157293754594</v>
+        <v>22.56252127075084</v>
       </c>
       <c r="D17">
-        <v>4.032391142327256</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.164579839541738</v>
       </c>
       <c r="F17">
-        <v>56.71246074088248</v>
+        <v>40.30629889416046</v>
       </c>
       <c r="G17">
-        <v>3.77791367839912</v>
+        <v>2.008727143488976</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1149,20 +966,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>9.799407186976641</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>11.65497835446592</v>
-      </c>
-      <c r="M17">
-        <v>22.14142374098401</v>
-      </c>
       <c r="N17">
-        <v>23.36187382853584</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.34746534860467</v>
+        <v>30.31690209680232</v>
       </c>
       <c r="C18">
-        <v>11.71609571556522</v>
+        <v>22.2571854638409</v>
       </c>
       <c r="D18">
-        <v>4.016902999896208</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.192912020132288</v>
       </c>
       <c r="F18">
-        <v>56.66917820298873</v>
+        <v>39.80053138234506</v>
       </c>
       <c r="G18">
-        <v>3.77893138768043</v>
+        <v>2.01208861158553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1196,20 +1001,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>9.801079264203045</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>11.6582040666711</v>
-      </c>
-      <c r="M18">
-        <v>22.12786843464806</v>
-      </c>
       <c r="N18">
-        <v>23.37428945218527</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.3214514070316</v>
+        <v>30.17300703956229</v>
       </c>
       <c r="C19">
-        <v>11.68364930121321</v>
+        <v>22.15326210914914</v>
       </c>
       <c r="D19">
-        <v>4.01163774152324</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3.202617436654714</v>
       </c>
       <c r="F19">
-        <v>56.65473238247638</v>
+        <v>39.6295161682746</v>
       </c>
       <c r="G19">
-        <v>3.779278265399989</v>
+        <v>2.013226312807713</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1243,20 +1036,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>9.801649357730769</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>11.65932136364057</v>
-      </c>
-      <c r="M19">
-        <v>22.12335425094766</v>
-      </c>
       <c r="N19">
-        <v>23.37852670665094</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43886717120623</v>
+        <v>30.81751472760232</v>
       </c>
       <c r="C20">
-        <v>11.82918608006789</v>
+        <v>22.61877731264731</v>
       </c>
       <c r="D20">
-        <v>4.035247522975948</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.159391498569195</v>
       </c>
       <c r="F20">
-        <v>56.72057047591446</v>
+        <v>40.4000173398404</v>
       </c>
       <c r="G20">
-        <v>3.777726414237591</v>
+        <v>2.008104748227199</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1290,20 +1071,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>9.799099601451074</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>11.65439328029556</v>
-      </c>
-      <c r="M20">
-        <v>22.14396829253663</v>
-      </c>
       <c r="N20">
-        <v>23.35959190705693</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.83917509184291</v>
+        <v>32.93197337489593</v>
       </c>
       <c r="C21">
-        <v>12.30939283174444</v>
+        <v>24.14682369244322</v>
       </c>
       <c r="D21">
-        <v>4.113073089758227</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>3.023199572656392</v>
       </c>
       <c r="F21">
-        <v>56.9562338758808</v>
+        <v>43.05960371131725</v>
       </c>
       <c r="G21">
-        <v>3.772671735202249</v>
+        <v>1.990830617194654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1337,20 +1106,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>9.790807363336812</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>11.63958212529748</v>
-      </c>
-      <c r="M21">
-        <v>22.21844263880021</v>
-      </c>
       <c r="N21">
-        <v>23.29830744167934</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.10473701967654</v>
+        <v>34.27870618316638</v>
       </c>
       <c r="C22">
-        <v>12.61618407832912</v>
+        <v>25.12080630429587</v>
       </c>
       <c r="D22">
-        <v>4.162792994389029</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>2.942621195527507</v>
       </c>
       <c r="F22">
-        <v>57.1209309354124</v>
+        <v>44.92047478392392</v>
       </c>
       <c r="G22">
-        <v>3.769486266591958</v>
+        <v>1.979444515997075</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1384,20 +1141,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>9.785591783709284</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>11.63120219652038</v>
-      </c>
-      <c r="M22">
-        <v>22.27096209463414</v>
-      </c>
       <c r="N22">
-        <v>23.25999503766701</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96266650946522</v>
+        <v>33.56295356486644</v>
       </c>
       <c r="C23">
-        <v>12.45311979855966</v>
+        <v>24.60308169656249</v>
       </c>
       <c r="D23">
-        <v>4.136362777404521</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>2.98473085631146</v>
       </c>
       <c r="F23">
-        <v>57.03205868996785</v>
+        <v>43.92672621178786</v>
       </c>
       <c r="G23">
-        <v>3.771175653436538</v>
+        <v>1.985533600784127</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1431,20 +1176,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>9.788356831854408</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>11.6355558838757</v>
-      </c>
-      <c r="M23">
-        <v>22.24258223539817</v>
-      </c>
       <c r="N23">
-        <v>23.28028375511849</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43239642275629</v>
+        <v>30.78231995068175</v>
       </c>
       <c r="C24">
-        <v>11.82122553100465</v>
+        <v>22.59335403424101</v>
       </c>
       <c r="D24">
-        <v>4.033956562621077</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.16173494521897</v>
       </c>
       <c r="F24">
-        <v>56.71690034678274</v>
+        <v>40.35764355953153</v>
       </c>
       <c r="G24">
-        <v>3.777811033323624</v>
+        <v>2.008386140027848</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1478,20 +1211,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>9.799238586856053</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>11.65465733245914</v>
-      </c>
-      <c r="M24">
-        <v>22.14281655627617</v>
-      </c>
       <c r="N24">
-        <v>23.36062293823021</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.87983539805398</v>
+        <v>27.61451343611823</v>
       </c>
       <c r="C25">
-        <v>11.11281931834974</v>
+        <v>20.30627239687792</v>
       </c>
       <c r="D25">
-        <v>3.918754392649204</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.378935273911077</v>
       </c>
       <c r="F25">
-        <v>56.42338732843267</v>
+        <v>36.68982221908259</v>
       </c>
       <c r="G25">
-        <v>3.78547974194996</v>
+        <v>2.032909719090453</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1525,20 +1246,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>9.811856754106879</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>11.68085342662645</v>
-      </c>
-      <c r="M25">
-        <v>22.05196398252703</v>
-      </c>
       <c r="N25">
-        <v>23.45474818215582</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,922 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12066508047199</v>
+        <v>24.40152511338165</v>
       </c>
       <c r="C2">
-        <v>18.50717636739467</v>
+        <v>18.7500950207459</v>
       </c>
       <c r="D2">
-        <v>3.553898362447198</v>
+        <v>4.243408721799249</v>
       </c>
       <c r="F2">
-        <v>34.02244805858481</v>
+        <v>33.88909032170668</v>
       </c>
       <c r="G2">
-        <v>2.05112261921371</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>2.07705785131272</v>
       </c>
       <c r="I2">
+        <v>2.950458928960447</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.32294356700529</v>
+        <v>22.72596503533208</v>
       </c>
       <c r="C3">
-        <v>17.21087892886631</v>
+        <v>17.4607880426394</v>
       </c>
       <c r="D3">
-        <v>3.679471898860432</v>
+        <v>4.288587947735442</v>
       </c>
       <c r="F3">
-        <v>32.23415050789163</v>
+        <v>32.23217511649754</v>
       </c>
       <c r="G3">
-        <v>2.063671027823775</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>2.086321902241927</v>
       </c>
       <c r="I3">
+        <v>2.604783790041146</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.16404985398539</v>
+        <v>21.63882692485679</v>
       </c>
       <c r="C4">
-        <v>16.37545588287081</v>
+        <v>16.63432093356624</v>
       </c>
       <c r="D4">
-        <v>3.759503404831634</v>
+        <v>4.314373690978637</v>
       </c>
       <c r="F4">
-        <v>31.14658319201852</v>
+        <v>31.17988047947677</v>
       </c>
       <c r="G4">
-        <v>2.071507428230089</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>2.092149466325847</v>
       </c>
       <c r="I4">
+        <v>2.558892818809912</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.67766943158848</v>
+        <v>21.18065749321629</v>
       </c>
       <c r="C5">
-        <v>16.02488370029559</v>
+        <v>16.30463692233737</v>
       </c>
       <c r="D5">
-        <v>3.792794968854433</v>
+        <v>4.318112285363997</v>
       </c>
       <c r="F5">
-        <v>30.70628172688132</v>
+        <v>30.67225719031006</v>
       </c>
       <c r="G5">
-        <v>2.074737947957455</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>2.094580085760515</v>
       </c>
       <c r="I5">
+        <v>2.656282212492517</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.59604590236445</v>
+        <v>21.10326599750852</v>
       </c>
       <c r="C6">
-        <v>15.96605406594505</v>
+        <v>16.26890142563465</v>
       </c>
       <c r="D6">
-        <v>3.798362538024393</v>
+        <v>4.311132955152923</v>
       </c>
       <c r="F6">
-        <v>30.63335419682891</v>
+        <v>30.50137928088079</v>
       </c>
       <c r="G6">
-        <v>2.075276726001727</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>2.095008918922652</v>
       </c>
       <c r="I6">
+        <v>2.677098059360913</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.15754787882375</v>
+        <v>21.6315665562275</v>
       </c>
       <c r="C7">
-        <v>16.37076921455001</v>
+        <v>16.68191263417796</v>
       </c>
       <c r="D7">
-        <v>3.759949707178319</v>
+        <v>4.29354808523536</v>
       </c>
       <c r="F7">
-        <v>31.14063300677193</v>
+        <v>30.94153637750803</v>
       </c>
       <c r="G7">
-        <v>2.071550840791102</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>2.092244219293423</v>
       </c>
       <c r="I7">
+        <v>2.572457109991099</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51207418911764</v>
+        <v>23.83426079349599</v>
       </c>
       <c r="C8">
-        <v>18.06828337257599</v>
+        <v>18.37580673752526</v>
       </c>
       <c r="D8">
-        <v>3.596547931528911</v>
+        <v>4.231394379972722</v>
       </c>
       <c r="F8">
-        <v>33.40379692199351</v>
+        <v>33.03543708693842</v>
       </c>
       <c r="G8">
-        <v>2.055424538320198</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>2.080304034616019</v>
       </c>
       <c r="I8">
+        <v>2.832689287066114</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70565874362189</v>
+        <v>27.69971506857345</v>
       </c>
       <c r="C9">
-        <v>21.09380119068834</v>
+        <v>21.34496978290595</v>
       </c>
       <c r="D9">
-        <v>3.303033518747343</v>
+        <v>4.131621130278757</v>
       </c>
       <c r="F9">
-        <v>37.9196483680248</v>
+        <v>37.23550340350904</v>
       </c>
       <c r="G9">
-        <v>2.024640570915208</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>2.057793972698662</v>
       </c>
       <c r="I9">
+        <v>3.672930674147697</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.5494315685665</v>
+        <v>30.27089541772785</v>
       </c>
       <c r="C10">
-        <v>23.14756063989128</v>
+        <v>23.39073403138008</v>
       </c>
       <c r="D10">
-        <v>3.111160900277084</v>
+        <v>4.037331253286049</v>
       </c>
       <c r="F10">
-        <v>41.28892695156152</v>
+        <v>40.0389674978795</v>
       </c>
       <c r="G10">
-        <v>2.002207640482395</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>2.041754085716359</v>
       </c>
       <c r="I10">
+        <v>4.276194429925387</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.7970724607062</v>
+        <v>31.38258706963893</v>
       </c>
       <c r="C11">
-        <v>24.04929482422324</v>
+        <v>24.34892968132975</v>
       </c>
       <c r="D11">
-        <v>3.031572387223508</v>
+        <v>3.956299130367295</v>
       </c>
       <c r="F11">
-        <v>42.87531494114151</v>
+        <v>40.98329281174028</v>
       </c>
       <c r="G11">
-        <v>1.991954538386354</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>2.03461350398881</v>
       </c>
       <c r="I11">
+        <v>4.548356370381744</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.2634375847348</v>
+        <v>31.796847954855</v>
       </c>
       <c r="C12">
-        <v>24.3864867254996</v>
+        <v>24.67443138823731</v>
       </c>
       <c r="D12">
-        <v>3.002844237690956</v>
+        <v>3.944040019221765</v>
       </c>
       <c r="F12">
-        <v>43.51406593954543</v>
+        <v>41.49605442455382</v>
       </c>
       <c r="G12">
-        <v>1.98805624994676</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>2.031866606995859</v>
       </c>
       <c r="I12">
+        <v>4.651434139254633</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.16325909495887</v>
+        <v>31.70820002486712</v>
       </c>
       <c r="C13">
-        <v>24.31404946246923</v>
+        <v>24.59809538657359</v>
       </c>
       <c r="D13">
-        <v>3.00896281981484</v>
+        <v>3.950472206221592</v>
       </c>
       <c r="F13">
-        <v>43.37646756260629</v>
+        <v>41.41733098525101</v>
       </c>
       <c r="G13">
-        <v>1.988896667408351</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>2.03244825808961</v>
       </c>
       <c r="I13">
+        <v>4.629242878200327</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.83555934107662</v>
+        <v>31.41691957417223</v>
       </c>
       <c r="C14">
-        <v>24.07711895456259</v>
+        <v>24.37304130017777</v>
       </c>
       <c r="D14">
-        <v>3.029178577428125</v>
+        <v>3.95689234867477</v>
       </c>
       <c r="F14">
-        <v>42.92785236076709</v>
+        <v>41.03905056531796</v>
       </c>
       <c r="G14">
-        <v>1.991634192930609</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>2.034383281160172</v>
       </c>
       <c r="I14">
+        <v>4.556832808726067</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63405773330384</v>
+        <v>31.23705020066625</v>
       </c>
       <c r="C15">
-        <v>23.9314484380003</v>
+        <v>24.24750837389242</v>
       </c>
       <c r="D15">
-        <v>3.041755524139105</v>
+        <v>3.953453309751251</v>
       </c>
       <c r="F15">
-        <v>42.65314008506419</v>
+        <v>40.74379012933426</v>
       </c>
       <c r="G15">
-        <v>1.993308683026765</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>2.03558834974812</v>
       </c>
       <c r="I15">
+        <v>4.51255276871253</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.46701276973545</v>
+        <v>30.193460106468</v>
       </c>
       <c r="C16">
-        <v>23.08800861018754</v>
+        <v>23.4387135387007</v>
       </c>
       <c r="D16">
-        <v>3.116541026543988</v>
+        <v>3.98041229215222</v>
       </c>
       <c r="F16">
-        <v>41.18810170100363</v>
+        <v>39.43612947045661</v>
       </c>
       <c r="G16">
-        <v>2.002876020472171</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>2.042384693643387</v>
       </c>
       <c r="I16">
+        <v>4.25846699958535</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73963593102712</v>
+        <v>29.53912343923259</v>
       </c>
       <c r="C17">
-        <v>22.56252127075084</v>
+        <v>22.93480801731377</v>
       </c>
       <c r="D17">
-        <v>3.164579839541738</v>
+        <v>3.996808507443747</v>
       </c>
       <c r="F17">
-        <v>40.30629889416046</v>
+        <v>38.62362083353122</v>
       </c>
       <c r="G17">
-        <v>2.008727143488976</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>2.046567749169033</v>
       </c>
       <c r="I17">
+        <v>4.102472585393679</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.31690209680232</v>
+        <v>29.15859006045722</v>
       </c>
       <c r="C18">
-        <v>22.2571854638409</v>
+        <v>22.60716534808832</v>
       </c>
       <c r="D18">
-        <v>3.192912020132288</v>
+        <v>4.024199799216304</v>
       </c>
       <c r="F18">
-        <v>39.80053138234506</v>
+        <v>38.32048458014881</v>
       </c>
       <c r="G18">
-        <v>2.01208861158553</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>2.048930843175401</v>
       </c>
       <c r="I18">
+        <v>4.011791541743872</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.17300703956229</v>
+        <v>29.02800242597672</v>
       </c>
       <c r="C19">
-        <v>22.15326210914914</v>
+        <v>22.52257268033065</v>
       </c>
       <c r="D19">
-        <v>3.202617436654714</v>
+        <v>4.01949795585938</v>
       </c>
       <c r="F19">
-        <v>39.6295161682746</v>
+        <v>38.08786029062223</v>
       </c>
       <c r="G19">
-        <v>2.013226312807713</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>2.049769948347161</v>
       </c>
       <c r="I19">
+        <v>3.981675618807463</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81751472760232</v>
+        <v>29.60940672301104</v>
       </c>
       <c r="C20">
-        <v>22.61877731264731</v>
+        <v>22.98604629645983</v>
       </c>
       <c r="D20">
-        <v>3.159391498569195</v>
+        <v>3.996483600882639</v>
       </c>
       <c r="F20">
-        <v>40.4000173398404</v>
+        <v>38.72355455345608</v>
       </c>
       <c r="G20">
-        <v>2.008104748227199</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>2.046118012522454</v>
       </c>
       <c r="I20">
+        <v>4.11901702383052</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.93197337489593</v>
+        <v>31.50142573691263</v>
       </c>
       <c r="C21">
-        <v>24.14682369244322</v>
+        <v>24.47545577238903</v>
       </c>
       <c r="D21">
-        <v>3.023199572656392</v>
+        <v>3.934078764221657</v>
       </c>
       <c r="F21">
-        <v>43.05960371131725</v>
+        <v>40.97323669151889</v>
       </c>
       <c r="G21">
-        <v>1.990830617194654</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>2.03386921070866</v>
       </c>
       <c r="I21">
+        <v>4.578306678729912</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.27870618316638</v>
+        <v>32.69419102076563</v>
       </c>
       <c r="C22">
-        <v>25.12080630429587</v>
+        <v>25.37848179562785</v>
       </c>
       <c r="D22">
-        <v>2.942621195527507</v>
+        <v>3.9194006871478</v>
       </c>
       <c r="F22">
-        <v>44.92047478392392</v>
+        <v>42.63507610139457</v>
       </c>
       <c r="G22">
-        <v>1.979444515997075</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>2.025825323261418</v>
       </c>
       <c r="I22">
+        <v>4.878158241193466</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.56295356486644</v>
+        <v>32.06320387382068</v>
       </c>
       <c r="C23">
-        <v>24.60308169656249</v>
+        <v>24.85555556295535</v>
       </c>
       <c r="D23">
-        <v>2.98473085631146</v>
+        <v>3.952883861293667</v>
       </c>
       <c r="F23">
-        <v>43.92672621178786</v>
+        <v>41.96267167418173</v>
       </c>
       <c r="G23">
-        <v>1.985533600784127</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>2.030051153081344</v>
       </c>
       <c r="I23">
+        <v>4.718180268288597</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78231995068175</v>
+        <v>29.57996643979254</v>
       </c>
       <c r="C24">
-        <v>22.59335403424101</v>
+        <v>22.89003976661993</v>
       </c>
       <c r="D24">
-        <v>3.16173494521897</v>
+        <v>4.035576310807944</v>
       </c>
       <c r="F24">
-        <v>40.35764355953153</v>
+        <v>39.03040374684753</v>
       </c>
       <c r="G24">
-        <v>2.008386140027848</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>2.046217170333558</v>
       </c>
       <c r="I24">
+        <v>4.110567644104409</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61451343611823</v>
+        <v>26.69966161303639</v>
       </c>
       <c r="C25">
-        <v>20.30627239687792</v>
+        <v>20.64700831539642</v>
       </c>
       <c r="D25">
-        <v>3.378935273911077</v>
+        <v>4.122205484773477</v>
       </c>
       <c r="F25">
-        <v>36.68982221908259</v>
+        <v>35.76565744021307</v>
       </c>
       <c r="G25">
-        <v>2.032909719090453</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>2.063893976151157</v>
       </c>
       <c r="I25">
+        <v>3.448939518859143</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -427,30 +427,45 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40152511338165</v>
+        <v>13.61277426120842</v>
       </c>
       <c r="C2">
-        <v>18.7500950207459</v>
+        <v>6.63253643051909</v>
       </c>
       <c r="D2">
-        <v>4.243408721799249</v>
+        <v>4.441605768527828</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>33.88909032170668</v>
+        <v>29.64574716163366</v>
       </c>
       <c r="G2">
-        <v>2.07705785131272</v>
+        <v>37.88143490938002</v>
+      </c>
+      <c r="H2">
+        <v>3.716965373175691</v>
       </c>
       <c r="I2">
-        <v>2.950458928960447</v>
+        <v>4.378364015722758</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.80108417555434</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.06256085302319</v>
+      </c>
+      <c r="L2">
+        <v>5.991847254153829</v>
       </c>
       <c r="M2">
+        <v>11.20291455416862</v>
+      </c>
+      <c r="N2">
+        <v>7.126318790424187</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
@@ -465,30 +480,45 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72596503533208</v>
+        <v>12.76515658992918</v>
       </c>
       <c r="C3">
-        <v>17.4607880426394</v>
+        <v>6.295120530274113</v>
       </c>
       <c r="D3">
-        <v>4.288587947735442</v>
+        <v>4.251440499035825</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>32.23217511649754</v>
+        <v>29.1489133971357</v>
       </c>
       <c r="G3">
-        <v>2.086321902241927</v>
+        <v>37.17186802271954</v>
+      </c>
+      <c r="H3">
+        <v>3.944579211328018</v>
       </c>
       <c r="I3">
-        <v>2.604783790041146</v>
+        <v>4.56293129091833</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.7421816436095</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.9299887456871</v>
+      </c>
+      <c r="L3">
+        <v>5.911968768308787</v>
       </c>
       <c r="M3">
+        <v>10.51631964442569</v>
+      </c>
+      <c r="N3">
+        <v>6.88749178360225</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
@@ -503,30 +533,45 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63882692485679</v>
+        <v>12.21560251972122</v>
       </c>
       <c r="C4">
-        <v>16.63432093356624</v>
+        <v>6.081069415679404</v>
       </c>
       <c r="D4">
-        <v>4.314373690978637</v>
+        <v>4.131532847424139</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>31.17988047947677</v>
+        <v>28.84400963095976</v>
       </c>
       <c r="G4">
-        <v>2.092149466325847</v>
+        <v>36.73534473845319</v>
+      </c>
+      <c r="H4">
+        <v>4.089412954455761</v>
       </c>
       <c r="I4">
-        <v>2.558892818809912</v>
+        <v>4.680854636802387</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.70781911377057</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.84956765093244</v>
+      </c>
+      <c r="L4">
+        <v>5.861139708263009</v>
       </c>
       <c r="M4">
+        <v>10.07155812714568</v>
+      </c>
+      <c r="N4">
+        <v>6.737469940990658</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
@@ -541,30 +586,45 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.18065749321629</v>
+        <v>11.98267473862701</v>
       </c>
       <c r="C5">
-        <v>16.30463692233737</v>
+        <v>5.997511944390001</v>
       </c>
       <c r="D5">
-        <v>4.318112285363997</v>
+        <v>4.084264832918437</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>30.67225719031006</v>
+        <v>28.70568044094066</v>
       </c>
       <c r="G5">
-        <v>2.094580085760515</v>
+        <v>36.53289386501775</v>
+      </c>
+      <c r="H5">
+        <v>4.150131369550905</v>
       </c>
       <c r="I5">
-        <v>2.656282212492517</v>
+        <v>4.732430646574811</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.6896766259999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.80669362421187</v>
+      </c>
+      <c r="L5">
+        <v>5.839021235632571</v>
       </c>
       <c r="M5">
+        <v>9.885914225793515</v>
+      </c>
+      <c r="N5">
+        <v>6.677082068293698</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
@@ -579,30 +639,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10326599750852</v>
+        <v>11.94144994501103</v>
       </c>
       <c r="C6">
-        <v>16.26890142563465</v>
+        <v>5.990135679401313</v>
       </c>
       <c r="D6">
-        <v>4.311132955152923</v>
+        <v>4.0792300697615</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>30.50137928088079</v>
+        <v>28.66533437672613</v>
       </c>
       <c r="G6">
-        <v>2.095008918922652</v>
+        <v>36.46931667687988</v>
+      </c>
+      <c r="H6">
+        <v>4.160782156965286</v>
       </c>
       <c r="I6">
-        <v>2.677098059360913</v>
+        <v>4.744056083456092</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.68108211479015</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.78693731964843</v>
+      </c>
+      <c r="L6">
+        <v>5.834151832874274</v>
       </c>
       <c r="M6">
+        <v>9.856464877722026</v>
+      </c>
+      <c r="N6">
+        <v>6.6688899710865</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
@@ -617,30 +692,45 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6315665562275</v>
+        <v>12.20683759154816</v>
       </c>
       <c r="C7">
-        <v>16.68191263417796</v>
+        <v>6.097666796060752</v>
       </c>
       <c r="D7">
-        <v>4.29354808523536</v>
+        <v>4.138575332527688</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>30.94153637750803</v>
+        <v>28.79497201066809</v>
       </c>
       <c r="G7">
-        <v>2.092244219293423</v>
+        <v>36.65135848996142</v>
+      </c>
+      <c r="H7">
+        <v>4.0915431314992</v>
       </c>
       <c r="I7">
-        <v>2.572457109991099</v>
+        <v>4.689467859397594</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.69231209801455</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.81455812922548</v>
+      </c>
+      <c r="L7">
+        <v>5.857677808901886</v>
       </c>
       <c r="M7">
+        <v>10.07369422920471</v>
+      </c>
+      <c r="N7">
+        <v>6.741737906734026</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
@@ -655,30 +745,45 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.83426079349599</v>
+        <v>13.31959588225362</v>
       </c>
       <c r="C8">
-        <v>18.37580673752526</v>
+        <v>6.539767865406566</v>
       </c>
       <c r="D8">
-        <v>4.231394379972722</v>
+        <v>4.386327402970711</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>33.03543708693842</v>
+        <v>29.41359982936531</v>
       </c>
       <c r="G8">
-        <v>2.080304034616019</v>
+        <v>37.53235246873327</v>
+      </c>
+      <c r="H8">
+        <v>3.796055688224437</v>
       </c>
       <c r="I8">
-        <v>2.832689287066114</v>
+        <v>4.451094331024822</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.76049136931699</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.97174549583687</v>
+      </c>
+      <c r="L8">
+        <v>5.960616956507103</v>
       </c>
       <c r="M8">
+        <v>10.97668156110452</v>
+      </c>
+      <c r="N8">
+        <v>7.051169310152098</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
@@ -693,30 +798,45 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.69971506857345</v>
+        <v>15.27798603384086</v>
       </c>
       <c r="C9">
-        <v>21.34496978290595</v>
+        <v>7.322608090387561</v>
       </c>
       <c r="D9">
-        <v>4.131621130278757</v>
+        <v>4.832599753533313</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>37.23550340350904</v>
+        <v>30.70517765154008</v>
       </c>
       <c r="G9">
-        <v>2.057793972698662</v>
+        <v>39.38712077544407</v>
+      </c>
+      <c r="H9">
+        <v>3.253813354398937</v>
       </c>
       <c r="I9">
-        <v>3.672930674147697</v>
+        <v>4.006477125975567</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.9355248899913</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.34798772041171</v>
+      </c>
+      <c r="L9">
+        <v>6.153757751687486</v>
       </c>
       <c r="M9">
+        <v>12.55565298714453</v>
+      </c>
+      <c r="N9">
+        <v>7.620150926591748</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
@@ -731,30 +851,45 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.27089541772785</v>
+        <v>16.56124386033349</v>
       </c>
       <c r="C10">
-        <v>23.39073403138008</v>
+        <v>7.901541839970506</v>
       </c>
       <c r="D10">
-        <v>4.037331253286049</v>
+        <v>5.116859321566705</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>40.0389674978795</v>
+        <v>31.39585535912554</v>
       </c>
       <c r="G10">
-        <v>2.041754085716359</v>
+        <v>40.3577912071321</v>
+      </c>
+      <c r="H10">
+        <v>2.906190918730782</v>
       </c>
       <c r="I10">
-        <v>4.276194429925387</v>
+        <v>3.712002618497181</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.99947665148945</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.47312929795591</v>
+      </c>
+      <c r="L10">
+        <v>6.245901599170113</v>
       </c>
       <c r="M10">
+        <v>13.61149916542323</v>
+      </c>
+      <c r="N10">
+        <v>7.932103311700464</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
@@ -769,30 +904,45 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.38258706963893</v>
+        <v>17.02141838340334</v>
       </c>
       <c r="C11">
-        <v>24.34892968132975</v>
+        <v>8.447685161781125</v>
       </c>
       <c r="D11">
-        <v>3.956299130367295</v>
+        <v>5.007480520375633</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>40.98329281174028</v>
+        <v>29.6729919010244</v>
       </c>
       <c r="G11">
-        <v>2.03461350398881</v>
+        <v>37.76943242872389</v>
+      </c>
+      <c r="H11">
+        <v>3.595995485318507</v>
       </c>
       <c r="I11">
-        <v>4.548356370381744</v>
+        <v>3.650352895977591</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.43767163511495</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.29604536862495</v>
+      </c>
+      <c r="L11">
+        <v>5.996571183495417</v>
       </c>
       <c r="M11">
+        <v>14.12765542674903</v>
+      </c>
+      <c r="N11">
+        <v>7.333659185428634</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
@@ -807,30 +957,45 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.796847954855</v>
+        <v>17.15366817172373</v>
       </c>
       <c r="C12">
-        <v>24.67443138823731</v>
+        <v>8.780676304353285</v>
       </c>
       <c r="D12">
-        <v>3.944040019221765</v>
+        <v>4.843438301642212</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>41.49605442455382</v>
+        <v>28.13772624451916</v>
       </c>
       <c r="G12">
-        <v>2.031866606995859</v>
+        <v>35.48606323024914</v>
+      </c>
+      <c r="H12">
+        <v>4.753239556558378</v>
       </c>
       <c r="I12">
-        <v>4.651434139254633</v>
+        <v>3.640583746792428</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.97678040425352</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.34924205220484</v>
+      </c>
+      <c r="L12">
+        <v>5.853570875266666</v>
       </c>
       <c r="M12">
+        <v>14.3453274183266</v>
+      </c>
+      <c r="N12">
+        <v>6.771766787361684</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -845,30 +1010,45 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.70820002486712</v>
+        <v>17.0395023477858</v>
       </c>
       <c r="C13">
-        <v>24.59809538657359</v>
+        <v>8.999100706428822</v>
       </c>
       <c r="D13">
-        <v>3.950472206221592</v>
+        <v>4.633233224188853</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>41.41733098525101</v>
+        <v>26.57617302117393</v>
       </c>
       <c r="G13">
-        <v>2.03244825808961</v>
+        <v>33.1637113386883</v>
+      </c>
+      <c r="H13">
+        <v>6.056436385963122</v>
       </c>
       <c r="I13">
-        <v>4.629242878200327</v>
+        <v>3.683244963635268</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.54342187322434</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.47543211390587</v>
+      </c>
+      <c r="L13">
+        <v>5.782267450206935</v>
       </c>
       <c r="M13">
+        <v>14.35878380152066</v>
+      </c>
+      <c r="N13">
+        <v>6.208351697677211</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
@@ -883,30 +1063,45 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.41691957417223</v>
+        <v>16.84525076460859</v>
       </c>
       <c r="C14">
-        <v>24.37304130017777</v>
+        <v>9.108949426434464</v>
       </c>
       <c r="D14">
-        <v>3.95689234867477</v>
+        <v>4.46490611083099</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>41.03905056531796</v>
+        <v>25.46482732618777</v>
       </c>
       <c r="G14">
-        <v>2.034383281160172</v>
+        <v>31.50598512193371</v>
+      </c>
+      <c r="H14">
+        <v>7.012543552629137</v>
       </c>
       <c r="I14">
-        <v>4.556832808726067</v>
+        <v>3.739116599129862</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.25267573554713</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.90074809343907</v>
+      </c>
+      <c r="L14">
+        <v>5.777059413730163</v>
       </c>
       <c r="M14">
+        <v>14.27741825302839</v>
+      </c>
+      <c r="N14">
+        <v>5.820704872234025</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
@@ -921,30 +1116,45 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.23705020066625</v>
+        <v>16.74292206374331</v>
       </c>
       <c r="C15">
-        <v>24.24750837389242</v>
+        <v>9.116907371109924</v>
       </c>
       <c r="D15">
-        <v>3.953453309751251</v>
+        <v>4.416345220723626</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.74379012933426</v>
+        <v>25.1751848727276</v>
       </c>
       <c r="G15">
-        <v>2.03558834974812</v>
+        <v>31.07074788091942</v>
+      </c>
+      <c r="H15">
+        <v>7.240363005667216</v>
       </c>
       <c r="I15">
-        <v>4.51255276871253</v>
+        <v>3.768280519330608</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.18311605318532</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.76507907971677</v>
+      </c>
+      <c r="L15">
+        <v>5.779422974427339</v>
       </c>
       <c r="M15">
+        <v>14.21481041912327</v>
+      </c>
+      <c r="N15">
+        <v>5.725434381925478</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
@@ -959,30 +1169,45 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.193460106468</v>
+        <v>16.23180770399823</v>
       </c>
       <c r="C16">
-        <v>23.4387135387007</v>
+        <v>8.859475799329081</v>
       </c>
       <c r="D16">
-        <v>3.98041229215222</v>
+        <v>4.333173847346812</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>39.43612947045661</v>
+        <v>25.14269099109846</v>
       </c>
       <c r="G16">
-        <v>2.042384693643387</v>
+        <v>31.02916702066298</v>
+      </c>
+      <c r="H16">
+        <v>7.084732312288218</v>
       </c>
       <c r="I16">
-        <v>4.25846699958535</v>
+        <v>3.890327943550711</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.23460500678852</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.87172581058718</v>
+      </c>
+      <c r="L16">
+        <v>5.748454618998203</v>
       </c>
       <c r="M16">
+        <v>13.78525576170031</v>
+      </c>
+      <c r="N16">
+        <v>5.6916184766025</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
@@ -997,30 +1222,45 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.53912343923259</v>
+        <v>15.93934571546352</v>
       </c>
       <c r="C17">
-        <v>22.93480801731377</v>
+        <v>8.596300930491987</v>
       </c>
       <c r="D17">
-        <v>3.996808507443747</v>
+        <v>4.361753757868623</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>38.62362083353122</v>
+        <v>25.70899746845317</v>
       </c>
       <c r="G17">
-        <v>2.046567749169033</v>
+        <v>31.8810603350741</v>
+      </c>
+      <c r="H17">
+        <v>6.435300788770856</v>
       </c>
       <c r="I17">
-        <v>4.102472585393679</v>
+        <v>3.955086485944488</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.42647655883359</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.25101109297855</v>
+      </c>
+      <c r="L17">
+        <v>5.719544008599121</v>
       </c>
       <c r="M17">
+        <v>13.49371751359746</v>
+      </c>
+      <c r="N17">
+        <v>5.870890982138571</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
@@ -1035,30 +1275,45 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.15859006045722</v>
+        <v>15.81232369623712</v>
       </c>
       <c r="C18">
-        <v>22.60716534808832</v>
+        <v>8.290569834618831</v>
       </c>
       <c r="D18">
-        <v>4.024199799216304</v>
+        <v>4.484696969900429</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>38.32048458014881</v>
+        <v>26.90196107676077</v>
       </c>
       <c r="G18">
-        <v>2.048930843175401</v>
+        <v>33.67439454639761</v>
+      </c>
+      <c r="H18">
+        <v>5.340679482828643</v>
       </c>
       <c r="I18">
-        <v>4.011791541743872</v>
+        <v>3.966644177803323</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.77802619419158</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.95479814176357</v>
+      </c>
+      <c r="L18">
+        <v>5.735316940543232</v>
       </c>
       <c r="M18">
+        <v>13.29129337498939</v>
+      </c>
+      <c r="N18">
+        <v>6.27204552650083</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
@@ -1073,30 +1328,45 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.02800242597672</v>
+        <v>15.82000633222868</v>
       </c>
       <c r="C19">
-        <v>22.52257268033065</v>
+        <v>8.016986492754524</v>
       </c>
       <c r="D19">
-        <v>4.01949795585938</v>
+        <v>4.684128872358316</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>38.08786029062223</v>
+        <v>28.45828039369782</v>
       </c>
       <c r="G19">
-        <v>2.049769948347161</v>
+        <v>35.99196001432587</v>
+      </c>
+      <c r="H19">
+        <v>4.125808117829249</v>
       </c>
       <c r="I19">
-        <v>3.981675618807463</v>
+        <v>3.947414815591546</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.21961059890952</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.85276820096135</v>
+      </c>
+      <c r="L19">
+        <v>5.850031517400506</v>
       </c>
       <c r="M19">
+        <v>13.18719065634759</v>
+      </c>
+      <c r="N19">
+        <v>6.85223147196939</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
@@ -1111,30 +1381,45 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.60940672301104</v>
+        <v>16.21932940014378</v>
       </c>
       <c r="C20">
-        <v>22.98604629645983</v>
+        <v>7.799160324691388</v>
       </c>
       <c r="D20">
-        <v>3.996483600882639</v>
+        <v>5.061848229537485</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>38.72355455345608</v>
+        <v>31.07108146106844</v>
       </c>
       <c r="G20">
-        <v>2.046118012522454</v>
+        <v>39.85995165942572</v>
+      </c>
+      <c r="H20">
+        <v>2.999497321546817</v>
       </c>
       <c r="I20">
-        <v>4.11901702383052</v>
+        <v>3.814376910183933</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.93411976168198</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.33261411583936</v>
+      </c>
+      <c r="L20">
+        <v>6.211663247538382</v>
       </c>
       <c r="M20">
+        <v>13.3534823963612</v>
+      </c>
+      <c r="N20">
+        <v>7.861009507274806</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
@@ -1149,30 +1434,45 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.50142573691263</v>
+        <v>17.19182739586649</v>
       </c>
       <c r="C21">
-        <v>24.47545577238903</v>
+        <v>8.174168211791114</v>
       </c>
       <c r="D21">
-        <v>3.934078764221657</v>
+        <v>5.312618962085228</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>40.97323669151889</v>
+        <v>31.98482270930917</v>
       </c>
       <c r="G21">
-        <v>2.03386921070866</v>
+        <v>41.1792584555193</v>
+      </c>
+      <c r="H21">
+        <v>2.697260308206179</v>
       </c>
       <c r="I21">
-        <v>4.578306678729912</v>
+        <v>3.579719246562586</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.0996623708159</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.66904152806798</v>
+      </c>
+      <c r="L21">
+        <v>6.343375447877405</v>
       </c>
       <c r="M21">
+        <v>14.11566118903713</v>
+      </c>
+      <c r="N21">
+        <v>8.226209854029467</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
@@ -1187,30 +1487,45 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.69419102076563</v>
+        <v>17.81493328007288</v>
       </c>
       <c r="C22">
-        <v>25.37848179562785</v>
+        <v>8.411561800326286</v>
       </c>
       <c r="D22">
-        <v>3.9194006871478</v>
+        <v>5.450551286831424</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>42.63507610139457</v>
+        <v>32.51465450588971</v>
       </c>
       <c r="G22">
-        <v>2.025825323261418</v>
+        <v>41.95273435716616</v>
+      </c>
+      <c r="H22">
+        <v>2.515378109429379</v>
       </c>
       <c r="I22">
-        <v>4.878158241193466</v>
+        <v>3.422372654071927</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.19390131187899</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.85962462454056</v>
+      </c>
+      <c r="L22">
+        <v>6.411155583435768</v>
       </c>
       <c r="M22">
+        <v>14.59258069903558</v>
+      </c>
+      <c r="N22">
+        <v>8.410003986777868</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
@@ -1225,30 +1540,45 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.06320387382068</v>
+        <v>17.49036928815684</v>
       </c>
       <c r="C23">
-        <v>24.85555556295535</v>
+        <v>8.269059407891472</v>
       </c>
       <c r="D23">
-        <v>3.952883861293667</v>
+        <v>5.370178591457421</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>41.96267167418173</v>
+        <v>32.28119153470283</v>
       </c>
       <c r="G23">
-        <v>2.030051153081344</v>
+        <v>41.62403858408777</v>
+      </c>
+      <c r="H23">
+        <v>2.610863351975073</v>
       </c>
       <c r="I23">
-        <v>4.718180268288597</v>
+        <v>3.495685427685773</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.16021928694028</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.79556923016148</v>
+      </c>
+      <c r="L23">
+        <v>6.378385923541952</v>
       </c>
       <c r="M23">
+        <v>14.3358553944641</v>
+      </c>
+      <c r="N23">
+        <v>8.307316693798732</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
@@ -1263,30 +1593,45 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.57996643979254</v>
+        <v>16.21936241556473</v>
       </c>
       <c r="C24">
-        <v>22.89003976661993</v>
+        <v>7.742183743433903</v>
       </c>
       <c r="D24">
-        <v>4.035576310807944</v>
+        <v>5.068952419790896</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>39.03040374684753</v>
+        <v>31.31630982431598</v>
       </c>
       <c r="G24">
-        <v>2.046217170333558</v>
+        <v>40.24142813432872</v>
+      </c>
+      <c r="H24">
+        <v>2.981844522531913</v>
       </c>
       <c r="I24">
-        <v>4.110567644104409</v>
+        <v>3.797044520888743</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.01047148387102</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.49656054012802</v>
+      </c>
+      <c r="L24">
+        <v>6.24621018997242</v>
       </c>
       <c r="M24">
+        <v>13.32912558882824</v>
+      </c>
+      <c r="N24">
+        <v>7.917259565735719</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
@@ -1301,30 +1646,45 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.69966161303639</v>
+        <v>14.76455702741205</v>
       </c>
       <c r="C25">
-        <v>20.64700831539642</v>
+        <v>7.144787969423942</v>
       </c>
       <c r="D25">
-        <v>4.122205484773477</v>
+        <v>4.72716570360477</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>35.76565744021307</v>
+        <v>30.27662945597612</v>
       </c>
       <c r="G25">
-        <v>2.063893976151157</v>
+        <v>38.75030639868001</v>
+      </c>
+      <c r="H25">
+        <v>3.398524084097906</v>
       </c>
       <c r="I25">
-        <v>3.448939518859143</v>
+        <v>4.137243531920029</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.85995668119601</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.18542617758502</v>
+      </c>
+      <c r="L25">
+        <v>6.097703573969254</v>
       </c>
       <c r="M25">
+        <v>12.15530696195982</v>
+      </c>
+      <c r="N25">
+        <v>7.478016590154354</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">

--- a/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.61277426120842</v>
+        <v>13.39487754505467</v>
       </c>
       <c r="C2">
-        <v>6.63253643051909</v>
+        <v>6.802395269333518</v>
       </c>
       <c r="D2">
-        <v>4.441605768527828</v>
+        <v>4.750067120954126</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.64574716163366</v>
+        <v>27.75413454759141</v>
       </c>
       <c r="G2">
-        <v>37.88143490938002</v>
+        <v>34.64313237387351</v>
       </c>
       <c r="H2">
-        <v>3.716965373175691</v>
+        <v>3.493234194169047</v>
       </c>
       <c r="I2">
-        <v>4.378364015722758</v>
+        <v>4.097512320612397</v>
       </c>
       <c r="J2">
-        <v>12.80108417555434</v>
+        <v>12.11760602459833</v>
       </c>
       <c r="K2">
-        <v>21.06256085302319</v>
+        <v>19.42840297839662</v>
       </c>
       <c r="L2">
-        <v>5.991847254153829</v>
+        <v>15.03191798532441</v>
       </c>
       <c r="M2">
-        <v>11.20291455416862</v>
+        <v>13.73796098518253</v>
       </c>
       <c r="N2">
-        <v>7.126318790424187</v>
+        <v>5.878451912934374</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.40865237192892</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.451839969682079</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76515658992918</v>
+        <v>12.54537716298491</v>
       </c>
       <c r="C3">
-        <v>6.295120530274113</v>
+        <v>6.374634076812205</v>
       </c>
       <c r="D3">
-        <v>4.251440499035825</v>
+        <v>4.540295499934238</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.1489133971357</v>
+        <v>27.41485793157856</v>
       </c>
       <c r="G3">
-        <v>37.17186802271954</v>
+        <v>34.27353494983514</v>
       </c>
       <c r="H3">
-        <v>3.944579211328018</v>
+        <v>3.70196339612137</v>
       </c>
       <c r="I3">
-        <v>4.56293129091833</v>
+        <v>4.25913805747294</v>
       </c>
       <c r="J3">
-        <v>12.7421816436095</v>
+        <v>12.06312633019719</v>
       </c>
       <c r="K3">
-        <v>20.9299887456871</v>
+        <v>19.40826484250451</v>
       </c>
       <c r="L3">
-        <v>5.911968768308787</v>
+        <v>15.0975290858579</v>
       </c>
       <c r="M3">
-        <v>10.51631964442569</v>
+        <v>13.67468587647175</v>
       </c>
       <c r="N3">
-        <v>6.88749178360225</v>
+        <v>5.812232705292547</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.71158489650908</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.205581984364594</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.21560251972122</v>
+        <v>11.99713800613922</v>
       </c>
       <c r="C4">
-        <v>6.081069415679404</v>
+        <v>6.101719164623576</v>
       </c>
       <c r="D4">
-        <v>4.131532847424139</v>
+        <v>4.408098683673471</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.84400963095976</v>
+        <v>27.20724296304505</v>
       </c>
       <c r="G4">
-        <v>36.73534473845319</v>
+        <v>34.05172662505102</v>
       </c>
       <c r="H4">
-        <v>4.089412954455761</v>
+        <v>3.834868924457902</v>
       </c>
       <c r="I4">
-        <v>4.680854636802387</v>
+        <v>4.362706118786336</v>
       </c>
       <c r="J4">
-        <v>12.70781911377057</v>
+        <v>12.02937685978603</v>
       </c>
       <c r="K4">
-        <v>20.84956765093244</v>
+        <v>19.39641825641165</v>
       </c>
       <c r="L4">
-        <v>5.861139708263009</v>
+        <v>15.13490780721017</v>
       </c>
       <c r="M4">
-        <v>10.07155812714568</v>
+        <v>13.65072871244865</v>
       </c>
       <c r="N4">
-        <v>6.737469940990658</v>
+        <v>5.769973975640648</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.26009982614614</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.051241499383047</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.98267473862701</v>
+        <v>11.76449089595209</v>
       </c>
       <c r="C5">
-        <v>5.997511944390001</v>
+        <v>5.994023719709818</v>
       </c>
       <c r="D5">
-        <v>4.084264832918437</v>
+        <v>4.355598769829496</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.70568044094066</v>
+        <v>27.10997479701665</v>
       </c>
       <c r="G5">
-        <v>36.53289386501775</v>
+        <v>33.94071203143963</v>
       </c>
       <c r="H5">
-        <v>4.150131369550905</v>
+        <v>3.890606995277095</v>
       </c>
       <c r="I5">
-        <v>4.732430646574811</v>
+        <v>4.408727377671235</v>
       </c>
       <c r="J5">
-        <v>12.6896766259999</v>
+        <v>12.01131753354444</v>
       </c>
       <c r="K5">
-        <v>20.80669362421187</v>
+        <v>19.3826488301751</v>
       </c>
       <c r="L5">
-        <v>5.839021235632571</v>
+        <v>15.14119334919277</v>
       </c>
       <c r="M5">
-        <v>9.885914225793515</v>
+        <v>13.63921201713201</v>
       </c>
       <c r="N5">
-        <v>6.677082068293698</v>
+        <v>5.751522791102553</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.07155536615178</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.989028516558133</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.94144994501103</v>
+        <v>11.72340826226398</v>
       </c>
       <c r="C6">
-        <v>5.990135679401313</v>
+        <v>5.983424998342262</v>
       </c>
       <c r="D6">
-        <v>4.0792300697615</v>
+        <v>4.349477323704132</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.66533437672613</v>
+        <v>27.07809622242592</v>
       </c>
       <c r="G6">
-        <v>36.46931667687988</v>
+        <v>33.89559474986801</v>
       </c>
       <c r="H6">
-        <v>4.160782156965286</v>
+        <v>3.900385181892852</v>
       </c>
       <c r="I6">
-        <v>4.744056083456092</v>
+        <v>4.419909170930344</v>
       </c>
       <c r="J6">
-        <v>12.68108211479015</v>
+        <v>12.00314063684528</v>
       </c>
       <c r="K6">
-        <v>20.78693731964843</v>
+        <v>19.36930282902375</v>
       </c>
       <c r="L6">
-        <v>5.834151832874274</v>
+        <v>15.13217076522546</v>
       </c>
       <c r="M6">
-        <v>9.856464877722026</v>
+        <v>13.63078281617199</v>
       </c>
       <c r="N6">
-        <v>6.6688899710865</v>
+        <v>5.74742456936989</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.0414981325454</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.980371236354149</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20683759154816</v>
+        <v>11.99072667348831</v>
       </c>
       <c r="C7">
-        <v>6.097666796060752</v>
+        <v>6.112550408032693</v>
       </c>
       <c r="D7">
-        <v>4.138575332527688</v>
+        <v>4.42142253091076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.79497201066809</v>
+        <v>27.13887945244878</v>
       </c>
       <c r="G7">
-        <v>36.65135848996142</v>
+        <v>34.0273215509567</v>
       </c>
       <c r="H7">
-        <v>4.0915431314992</v>
+        <v>3.837474554441932</v>
       </c>
       <c r="I7">
-        <v>4.689467859397594</v>
+        <v>4.373145441923029</v>
       </c>
       <c r="J7">
-        <v>12.69231209801455</v>
+        <v>11.97171534118766</v>
       </c>
       <c r="K7">
-        <v>20.81455812922548</v>
+        <v>19.35203319444545</v>
       </c>
       <c r="L7">
-        <v>5.857677808901886</v>
+        <v>15.09564245367264</v>
       </c>
       <c r="M7">
-        <v>10.07369422920471</v>
+        <v>13.62288479391735</v>
       </c>
       <c r="N7">
-        <v>6.741737906734026</v>
+        <v>5.766446660756706</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.2597915651433</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.055224875759381</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31959588225362</v>
+        <v>13.1038638098476</v>
       </c>
       <c r="C8">
-        <v>6.539767865406566</v>
+        <v>6.658047053695277</v>
       </c>
       <c r="D8">
-        <v>4.386327402970711</v>
+        <v>4.709273679924164</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.41359982936531</v>
+        <v>27.50315405171381</v>
       </c>
       <c r="G8">
-        <v>37.53235246873327</v>
+        <v>34.58515515390152</v>
       </c>
       <c r="H8">
-        <v>3.796055688224437</v>
+        <v>3.567744810019549</v>
       </c>
       <c r="I8">
-        <v>4.451094331024822</v>
+        <v>4.165954463973376</v>
       </c>
       <c r="J8">
-        <v>12.76049136931699</v>
+        <v>11.93961705220789</v>
       </c>
       <c r="K8">
-        <v>20.97174549583687</v>
+        <v>19.3363965010501</v>
       </c>
       <c r="L8">
-        <v>5.960616956507103</v>
+        <v>14.98345039966521</v>
       </c>
       <c r="M8">
-        <v>10.97668156110452</v>
+        <v>13.65560353994178</v>
       </c>
       <c r="N8">
-        <v>7.051169310152098</v>
+        <v>5.850763550499011</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.17210546478486</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.374143137195148</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.27798603384086</v>
+        <v>15.10081273257233</v>
       </c>
       <c r="C9">
-        <v>7.322608090387561</v>
+        <v>7.641186635371917</v>
       </c>
       <c r="D9">
-        <v>4.832599753533313</v>
+        <v>5.206861241796966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.70517765154008</v>
+        <v>28.38474382942398</v>
       </c>
       <c r="G9">
-        <v>39.38712077544407</v>
+        <v>35.66279379935987</v>
       </c>
       <c r="H9">
-        <v>3.253813354398937</v>
+        <v>3.071347830952794</v>
       </c>
       <c r="I9">
-        <v>4.006477125975567</v>
+        <v>3.776163365098901</v>
       </c>
       <c r="J9">
-        <v>12.9355248899913</v>
+        <v>12.05447327741333</v>
       </c>
       <c r="K9">
-        <v>21.34798772041171</v>
+        <v>19.41429756216954</v>
       </c>
       <c r="L9">
-        <v>6.153757751687486</v>
+        <v>14.8296632772897</v>
       </c>
       <c r="M9">
-        <v>12.55565298714453</v>
+        <v>13.90562800205952</v>
       </c>
       <c r="N9">
-        <v>7.620150926591748</v>
+        <v>6.010125108630449</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.77464161939278</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.963275264968006</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.56124386033349</v>
+        <v>16.40974619041762</v>
       </c>
       <c r="C10">
-        <v>7.901541839970506</v>
+        <v>8.310927691738875</v>
       </c>
       <c r="D10">
-        <v>5.116859321566705</v>
+        <v>5.55485953166024</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.39585535912554</v>
+        <v>28.69152234992767</v>
       </c>
       <c r="G10">
-        <v>40.3577912071321</v>
+        <v>36.44509414594346</v>
       </c>
       <c r="H10">
-        <v>2.906190918730782</v>
+        <v>2.758408201907472</v>
       </c>
       <c r="I10">
-        <v>3.712002618497181</v>
+        <v>3.523621000804521</v>
       </c>
       <c r="J10">
-        <v>12.99947665148945</v>
+        <v>11.84454574816713</v>
       </c>
       <c r="K10">
-        <v>21.47312929795591</v>
+        <v>19.27713676701849</v>
       </c>
       <c r="L10">
-        <v>6.245901599170113</v>
+        <v>14.55474061941866</v>
       </c>
       <c r="M10">
-        <v>13.61149916542323</v>
+        <v>14.00536387298062</v>
       </c>
       <c r="N10">
-        <v>7.932103311700464</v>
+        <v>6.081937085726388</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.8338701607421</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.287889078670419</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.02141838340334</v>
+        <v>16.90461412884435</v>
       </c>
       <c r="C11">
-        <v>8.447685161781125</v>
+        <v>8.783237366544334</v>
       </c>
       <c r="D11">
-        <v>5.007480520375633</v>
+        <v>5.487360661492247</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.6729919010244</v>
+        <v>26.8970393818592</v>
       </c>
       <c r="G11">
-        <v>37.76943242872389</v>
+        <v>34.74803391390836</v>
       </c>
       <c r="H11">
-        <v>3.595995485318507</v>
+        <v>3.487397284392419</v>
       </c>
       <c r="I11">
-        <v>3.650352895977591</v>
+        <v>3.479155329972083</v>
       </c>
       <c r="J11">
-        <v>12.43767163511495</v>
+        <v>10.9444022474768</v>
       </c>
       <c r="K11">
-        <v>20.29604536862495</v>
+        <v>18.14371167694009</v>
       </c>
       <c r="L11">
-        <v>5.996571183495417</v>
+        <v>13.64826813058143</v>
       </c>
       <c r="M11">
-        <v>14.12765542674903</v>
+        <v>13.21738541551676</v>
       </c>
       <c r="N11">
-        <v>7.333659185428634</v>
+        <v>5.870561247343637</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.31534377599646</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.666771008317983</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.15366817172373</v>
+        <v>17.05947706985085</v>
       </c>
       <c r="C12">
-        <v>8.780676304353285</v>
+        <v>9.045590596406299</v>
       </c>
       <c r="D12">
-        <v>4.843438301642212</v>
+        <v>5.32452942169192</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.13772624451916</v>
+        <v>25.46382668145</v>
       </c>
       <c r="G12">
-        <v>35.48606323024914</v>
+        <v>33.05699827612759</v>
       </c>
       <c r="H12">
-        <v>4.753239556558378</v>
+        <v>4.671791367515795</v>
       </c>
       <c r="I12">
-        <v>3.640583746792428</v>
+        <v>3.471592997974307</v>
       </c>
       <c r="J12">
-        <v>11.97678040425352</v>
+        <v>10.43574411686405</v>
       </c>
       <c r="K12">
-        <v>19.34924205220484</v>
+        <v>17.33953866064435</v>
       </c>
       <c r="L12">
-        <v>5.853570875266666</v>
+        <v>13.05018525216441</v>
       </c>
       <c r="M12">
-        <v>14.3453274183266</v>
+        <v>12.60826238012963</v>
       </c>
       <c r="N12">
-        <v>6.771766787361684</v>
+        <v>5.763591868358529</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.50832923183397</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.082158417382761</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.0395023477858</v>
+        <v>16.95737094557778</v>
       </c>
       <c r="C13">
-        <v>8.999100706428822</v>
+        <v>9.210244808265939</v>
       </c>
       <c r="D13">
-        <v>4.633233224188853</v>
+        <v>5.070189904001621</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.57617302117393</v>
+        <v>24.19846578647388</v>
       </c>
       <c r="G13">
-        <v>33.1637113386883</v>
+        <v>31.03279765845046</v>
       </c>
       <c r="H13">
-        <v>6.056436385963122</v>
+        <v>5.987937395606272</v>
       </c>
       <c r="I13">
-        <v>3.683244963635268</v>
+        <v>3.506501557797054</v>
       </c>
       <c r="J13">
-        <v>11.54342187322434</v>
+        <v>10.20259810905235</v>
       </c>
       <c r="K13">
-        <v>18.47543211390587</v>
+        <v>16.71750255825907</v>
       </c>
       <c r="L13">
-        <v>5.782267450206935</v>
+        <v>12.61655554160025</v>
       </c>
       <c r="M13">
-        <v>14.35878380152066</v>
+        <v>12.09555160227668</v>
       </c>
       <c r="N13">
-        <v>6.208351697677211</v>
+        <v>5.727479949182176</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.50609409849574</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.493944270710653</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.84525076460859</v>
+        <v>16.76708425918186</v>
       </c>
       <c r="C14">
-        <v>9.108949426434464</v>
+        <v>9.289225745109782</v>
       </c>
       <c r="D14">
-        <v>4.46490611083099</v>
+        <v>4.85140661513462</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.46482732618777</v>
+        <v>23.37506818672406</v>
       </c>
       <c r="G14">
-        <v>31.50598512193371</v>
+        <v>29.46886298167359</v>
       </c>
       <c r="H14">
-        <v>7.012543552629137</v>
+        <v>6.948612756316411</v>
       </c>
       <c r="I14">
-        <v>3.739116599129862</v>
+        <v>3.553062145836424</v>
       </c>
       <c r="J14">
-        <v>11.25267573554713</v>
+        <v>10.13720693285948</v>
       </c>
       <c r="K14">
-        <v>17.90074809343907</v>
+        <v>16.35814640961466</v>
       </c>
       <c r="L14">
-        <v>5.777059413730163</v>
+        <v>12.37569169219787</v>
       </c>
       <c r="M14">
-        <v>14.27741825302839</v>
+        <v>11.78133202967122</v>
       </c>
       <c r="N14">
-        <v>5.820704872234025</v>
+        <v>5.744425132137461</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.41727091830459</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.088324170297379</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.74292206374331</v>
+        <v>16.66335417206748</v>
       </c>
       <c r="C15">
-        <v>9.116907371109924</v>
+        <v>9.293392083246282</v>
       </c>
       <c r="D15">
-        <v>4.416345220723626</v>
+        <v>4.78222576461113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.1751848727276</v>
+        <v>23.19035856811838</v>
       </c>
       <c r="G15">
-        <v>31.07074788091942</v>
+        <v>29.01379827327753</v>
       </c>
       <c r="H15">
-        <v>7.240363005667216</v>
+        <v>7.17624409753041</v>
       </c>
       <c r="I15">
-        <v>3.768280519330608</v>
+        <v>3.578487436108867</v>
       </c>
       <c r="J15">
-        <v>11.18311605318532</v>
+        <v>10.15851419339161</v>
       </c>
       <c r="K15">
-        <v>17.76507907971677</v>
+        <v>16.2926409317225</v>
       </c>
       <c r="L15">
-        <v>5.779422974427339</v>
+        <v>12.33476828643436</v>
       </c>
       <c r="M15">
-        <v>14.21481041912327</v>
+        <v>11.71684054827393</v>
       </c>
       <c r="N15">
-        <v>5.725434381925478</v>
+        <v>5.751972697435854</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.3544136005686</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.988487942156616</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.23180770399823</v>
+        <v>16.12910304916149</v>
       </c>
       <c r="C16">
-        <v>8.859475799329081</v>
+        <v>9.06654573030959</v>
       </c>
       <c r="D16">
-        <v>4.333173847346812</v>
+        <v>4.631123593328286</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.14269099109846</v>
+        <v>23.4388979287054</v>
       </c>
       <c r="G16">
-        <v>31.02916702066298</v>
+        <v>28.6238716071045</v>
       </c>
       <c r="H16">
-        <v>7.084732312288218</v>
+        <v>7.00840002185769</v>
       </c>
       <c r="I16">
-        <v>3.890327943550711</v>
+        <v>3.681107322666483</v>
       </c>
       <c r="J16">
-        <v>11.23460500678852</v>
+        <v>10.52448681923489</v>
       </c>
       <c r="K16">
-        <v>17.87172581058718</v>
+        <v>16.5421478638782</v>
       </c>
       <c r="L16">
-        <v>5.748454618998203</v>
+        <v>12.53634353821285</v>
       </c>
       <c r="M16">
-        <v>13.78525576170031</v>
+        <v>11.86378012158035</v>
       </c>
       <c r="N16">
-        <v>5.6916184766025</v>
+        <v>5.722638424636901</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.93926844309451</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.95417533009386</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.93934571546352</v>
+        <v>15.81805676585929</v>
       </c>
       <c r="C17">
-        <v>8.596300930491987</v>
+        <v>8.833834059254229</v>
       </c>
       <c r="D17">
-        <v>4.361753757868623</v>
+        <v>4.642269338236765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.70899746845317</v>
+        <v>24.04495781023499</v>
       </c>
       <c r="G17">
-        <v>31.8810603350741</v>
+        <v>29.21355123046591</v>
       </c>
       <c r="H17">
-        <v>6.435300788770856</v>
+        <v>6.344977246656519</v>
       </c>
       <c r="I17">
-        <v>3.955086485944488</v>
+        <v>3.736563387078707</v>
       </c>
       <c r="J17">
-        <v>11.42647655883359</v>
+        <v>10.82443589866662</v>
       </c>
       <c r="K17">
-        <v>18.25101109297855</v>
+        <v>16.91317015132597</v>
       </c>
       <c r="L17">
-        <v>5.719544008599121</v>
+        <v>12.82434091703954</v>
       </c>
       <c r="M17">
-        <v>13.49371751359746</v>
+        <v>12.12520851238889</v>
       </c>
       <c r="N17">
-        <v>5.870890982138571</v>
+        <v>5.684442532020398</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.66072941195782</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.142206299457918</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.81232369623712</v>
+        <v>15.67332400574843</v>
       </c>
       <c r="C18">
-        <v>8.290569834618831</v>
+        <v>8.572148759122946</v>
       </c>
       <c r="D18">
-        <v>4.484696969900429</v>
+        <v>4.777593101066942</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.90196107676077</v>
+        <v>25.11540302834761</v>
       </c>
       <c r="G18">
-        <v>33.67439454639761</v>
+        <v>30.66483390663991</v>
       </c>
       <c r="H18">
-        <v>5.340679482828643</v>
+        <v>5.230027706377959</v>
       </c>
       <c r="I18">
-        <v>3.966644177803323</v>
+        <v>3.744490233225838</v>
       </c>
       <c r="J18">
-        <v>11.77802619419158</v>
+        <v>11.17427409504043</v>
       </c>
       <c r="K18">
-        <v>18.95479814176357</v>
+        <v>17.4950532678936</v>
       </c>
       <c r="L18">
-        <v>5.735316940543232</v>
+        <v>13.27254216459452</v>
       </c>
       <c r="M18">
-        <v>13.29129337498939</v>
+        <v>12.55572647709569</v>
       </c>
       <c r="N18">
-        <v>6.27204552650083</v>
+        <v>5.678015040902841</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.47492208848136</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.560839879584528</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82000633222868</v>
+        <v>15.66614354357474</v>
       </c>
       <c r="C19">
-        <v>8.016986492754524</v>
+        <v>8.351617752082294</v>
       </c>
       <c r="D19">
-        <v>4.684128872358316</v>
+        <v>5.006823422734966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.45828039369782</v>
+        <v>26.44982594831493</v>
       </c>
       <c r="G19">
-        <v>35.99196001432587</v>
+        <v>32.57055720701056</v>
       </c>
       <c r="H19">
-        <v>4.125808117829249</v>
+        <v>3.98711860293923</v>
       </c>
       <c r="I19">
-        <v>3.947414815591546</v>
+        <v>3.729803370191378</v>
       </c>
       <c r="J19">
-        <v>12.21961059890952</v>
+        <v>11.5513881081564</v>
       </c>
       <c r="K19">
-        <v>19.85276820096135</v>
+        <v>18.19867948082209</v>
       </c>
       <c r="L19">
-        <v>5.850031517400506</v>
+        <v>13.81254377344131</v>
       </c>
       <c r="M19">
-        <v>13.18719065634759</v>
+        <v>13.08501814195728</v>
       </c>
       <c r="N19">
-        <v>6.85223147196939</v>
+        <v>5.758783808046359</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.38946731017639</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.163924299320201</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.21932940014378</v>
+        <v>16.05761148476229</v>
       </c>
       <c r="C20">
-        <v>7.799160324691388</v>
+        <v>8.211316065612538</v>
       </c>
       <c r="D20">
-        <v>5.061848229537485</v>
+        <v>5.461074368969804</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.07108146106844</v>
+        <v>28.56113508278476</v>
       </c>
       <c r="G20">
-        <v>39.85995165942572</v>
+        <v>35.84605621322046</v>
       </c>
       <c r="H20">
-        <v>2.999497321546817</v>
+        <v>2.840418759843357</v>
       </c>
       <c r="I20">
-        <v>3.814376910183933</v>
+        <v>3.617890416480237</v>
       </c>
       <c r="J20">
-        <v>12.93411976168198</v>
+        <v>12.00181481066679</v>
       </c>
       <c r="K20">
-        <v>21.33261411583936</v>
+        <v>19.2684661230678</v>
       </c>
       <c r="L20">
-        <v>6.211663247538382</v>
+        <v>14.5929839637449</v>
       </c>
       <c r="M20">
-        <v>13.3534823963612</v>
+        <v>13.94194452179259</v>
       </c>
       <c r="N20">
-        <v>7.861009507274806</v>
+        <v>6.056141703559479</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.57998917485162</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.211637693003828</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.19182739586649</v>
+        <v>17.05291797286955</v>
       </c>
       <c r="C21">
-        <v>8.174168211791114</v>
+        <v>8.5486530894879</v>
       </c>
       <c r="D21">
-        <v>5.312618962085228</v>
+        <v>5.874530991238494</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.98482270930917</v>
+        <v>28.71234049799844</v>
       </c>
       <c r="G21">
-        <v>41.1792584555193</v>
+        <v>37.86061755667451</v>
       </c>
       <c r="H21">
-        <v>2.697260308206179</v>
+        <v>2.57429684196126</v>
       </c>
       <c r="I21">
-        <v>3.579719246562586</v>
+        <v>3.424562743795836</v>
       </c>
       <c r="J21">
-        <v>13.0996623708159</v>
+        <v>11.21422694342173</v>
       </c>
       <c r="K21">
-        <v>21.66904152806798</v>
+        <v>19.10516056239982</v>
       </c>
       <c r="L21">
-        <v>6.343375447877405</v>
+        <v>14.34339854261718</v>
       </c>
       <c r="M21">
-        <v>14.11566118903713</v>
+        <v>13.98499322385964</v>
       </c>
       <c r="N21">
-        <v>8.226209854029467</v>
+        <v>6.155569429835974</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.31887550706003</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.595300431800803</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.81493328007288</v>
+        <v>17.67698241601238</v>
       </c>
       <c r="C22">
-        <v>8.411561800326286</v>
+        <v>8.75200445204351</v>
       </c>
       <c r="D22">
-        <v>5.450551286831424</v>
+        <v>6.121908445250614</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.51465450588971</v>
+        <v>28.73049399955157</v>
       </c>
       <c r="G22">
-        <v>41.95273435716616</v>
+        <v>39.20657789554733</v>
       </c>
       <c r="H22">
-        <v>2.515378109429379</v>
+        <v>2.415430577353241</v>
       </c>
       <c r="I22">
-        <v>3.422372654071927</v>
+        <v>3.291372782209444</v>
       </c>
       <c r="J22">
-        <v>13.19390131187899</v>
+        <v>10.68387047375195</v>
       </c>
       <c r="K22">
-        <v>21.85962462454056</v>
+        <v>18.96002980960331</v>
       </c>
       <c r="L22">
-        <v>6.411155583435768</v>
+        <v>14.15449713795462</v>
       </c>
       <c r="M22">
-        <v>14.59258069903558</v>
+        <v>13.98975434819853</v>
       </c>
       <c r="N22">
-        <v>8.410003986777868</v>
+        <v>6.204800545329952</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.77845890683467</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.790123108668734</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.49036928815684</v>
+        <v>17.34826072037411</v>
       </c>
       <c r="C23">
-        <v>8.269059407891472</v>
+        <v>8.641067728794862</v>
       </c>
       <c r="D23">
-        <v>5.370178591457421</v>
+        <v>5.968875128092901</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.28119153470283</v>
+        <v>28.82211842390267</v>
       </c>
       <c r="G23">
-        <v>41.62403858408777</v>
+        <v>38.43226444023243</v>
       </c>
       <c r="H23">
-        <v>2.610863351975073</v>
+        <v>2.497741062853247</v>
       </c>
       <c r="I23">
-        <v>3.495685427685773</v>
+        <v>3.348954267281683</v>
       </c>
       <c r="J23">
-        <v>13.16021928694028</v>
+        <v>11.06572518682119</v>
       </c>
       <c r="K23">
-        <v>21.79556923016148</v>
+        <v>19.10342163561188</v>
       </c>
       <c r="L23">
-        <v>6.378385923541952</v>
+        <v>14.30239128966847</v>
       </c>
       <c r="M23">
-        <v>14.3358553944641</v>
+        <v>14.03904438963821</v>
       </c>
       <c r="N23">
-        <v>8.307316693798732</v>
+        <v>6.182357375700629</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.53510552251461</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.681461407883852</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.21936241556473</v>
+        <v>16.05612545919926</v>
       </c>
       <c r="C24">
-        <v>7.742183743433903</v>
+        <v>8.155714918868023</v>
       </c>
       <c r="D24">
-        <v>5.068952419790896</v>
+        <v>5.471170352097079</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.31630982431598</v>
+        <v>28.77907451303541</v>
       </c>
       <c r="G24">
-        <v>40.24142813432872</v>
+        <v>36.16649346027551</v>
       </c>
       <c r="H24">
-        <v>2.981844522531913</v>
+        <v>2.822974068886051</v>
       </c>
       <c r="I24">
-        <v>3.797044520888743</v>
+        <v>3.597914189989741</v>
       </c>
       <c r="J24">
-        <v>13.01047148387102</v>
+        <v>12.07306866534268</v>
       </c>
       <c r="K24">
-        <v>21.49656054012802</v>
+        <v>19.40482570748233</v>
       </c>
       <c r="L24">
-        <v>6.24621018997242</v>
+        <v>14.69836666578608</v>
       </c>
       <c r="M24">
-        <v>13.32912558882824</v>
+        <v>14.04337492986646</v>
       </c>
       <c r="N24">
-        <v>7.917259565735719</v>
+        <v>6.085780783496172</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.5579976220822</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.270909469130617</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.76455702741205</v>
+        <v>14.57643892645419</v>
       </c>
       <c r="C25">
-        <v>7.144787969423942</v>
+        <v>7.424402222739442</v>
       </c>
       <c r="D25">
-        <v>4.72716570360477</v>
+        <v>5.078260333500431</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.27662945597612</v>
+        <v>28.10661003509838</v>
       </c>
       <c r="G25">
-        <v>38.75030639868001</v>
+        <v>35.17376706546025</v>
       </c>
       <c r="H25">
-        <v>3.398524084097906</v>
+        <v>3.202897508590383</v>
       </c>
       <c r="I25">
-        <v>4.137243531920029</v>
+        <v>3.893937132695935</v>
       </c>
       <c r="J25">
-        <v>12.85995668119601</v>
+        <v>12.05934270475818</v>
       </c>
       <c r="K25">
-        <v>21.18542617758502</v>
+        <v>19.36027307135556</v>
       </c>
       <c r="L25">
-        <v>6.097703573969254</v>
+        <v>14.84806752382605</v>
       </c>
       <c r="M25">
-        <v>12.15530696195982</v>
+        <v>13.80202866490356</v>
       </c>
       <c r="N25">
-        <v>7.478016590154354</v>
+        <v>5.964526528417424</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.37032354255097</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.814655169356846</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
